--- a/WIP/Users/ManhLN/Report 4/UT/DDL_UnitTestCase_MessageRepository_v1.0.xlsx
+++ b/WIP/Users/ManhLN/Report 4/UT/DDL_UnitTestCase_MessageRepository_v1.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="886" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="886" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Guidleline" sheetId="1" r:id="rId1"/>
@@ -153,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="169">
   <si>
     <t>Project Name</t>
   </si>
@@ -3017,6 +3017,72 @@
     <xf numFmtId="14" fontId="39" fillId="24" borderId="10" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="34" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="58" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="59" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="60" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="55" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="56" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="61" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="47" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="62" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="63" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="31" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="32" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="33" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="34" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="64" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="68" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="69" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="57" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="24" borderId="70" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3088,72 +3154,6 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="24" borderId="27" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="34" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="58" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="59" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="60" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="55" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="56" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="61" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="47" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="62" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="63" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="31" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="32" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="33" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="34" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="64" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="68" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="69" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="57" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="82" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5611,7 +5611,9 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:T62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
   <cols>
@@ -5630,136 +5632,136 @@
       <c r="B1" s="75"/>
     </row>
     <row r="2" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A2" s="201" t="s">
+      <c r="A2" s="223" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="203" t="s">
+      <c r="B2" s="224"/>
+      <c r="C2" s="225" t="s">
         <v>149</v>
       </c>
-      <c r="D2" s="204"/>
-      <c r="E2" s="219" t="s">
+      <c r="D2" s="226"/>
+      <c r="E2" s="241" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="209" t="str">
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
+      <c r="H2" s="243"/>
+      <c r="I2" s="231" t="str">
         <f>C2</f>
         <v>ReplyMessage</v>
       </c>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="210"/>
-      <c r="P2" s="210"/>
-      <c r="Q2" s="210"/>
-      <c r="R2" s="211"/>
+      <c r="J2" s="232"/>
+      <c r="K2" s="232"/>
+      <c r="L2" s="232"/>
+      <c r="M2" s="232"/>
+      <c r="N2" s="232"/>
+      <c r="O2" s="232"/>
+      <c r="P2" s="232"/>
+      <c r="Q2" s="232"/>
+      <c r="R2" s="233"/>
       <c r="T2" s="78"/>
     </row>
     <row r="3" spans="1:20" ht="30" customHeight="1">
-      <c r="A3" s="207" t="s">
+      <c r="A3" s="229" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="208"/>
-      <c r="C3" s="215" t="str">
+      <c r="B3" s="230"/>
+      <c r="C3" s="237" t="str">
         <f>Cover!F4</f>
         <v>ManhLNSE02619</v>
       </c>
-      <c r="D3" s="216"/>
-      <c r="E3" s="222" t="s">
+      <c r="D3" s="238"/>
+      <c r="E3" s="244" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="223"/>
-      <c r="G3" s="223"/>
-      <c r="H3" s="224"/>
-      <c r="I3" s="212" t="str">
+      <c r="F3" s="245"/>
+      <c r="G3" s="245"/>
+      <c r="H3" s="246"/>
+      <c r="I3" s="234" t="str">
         <f>C3</f>
         <v>ManhLNSE02619</v>
       </c>
-      <c r="J3" s="213"/>
-      <c r="K3" s="213"/>
-      <c r="L3" s="213"/>
-      <c r="M3" s="213"/>
-      <c r="N3" s="213"/>
-      <c r="O3" s="213"/>
-      <c r="P3" s="213"/>
-      <c r="Q3" s="213"/>
-      <c r="R3" s="214"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="235"/>
+      <c r="M3" s="235"/>
+      <c r="N3" s="235"/>
+      <c r="O3" s="235"/>
+      <c r="P3" s="235"/>
+      <c r="Q3" s="235"/>
+      <c r="R3" s="236"/>
     </row>
     <row r="4" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A4" s="207" t="s">
+      <c r="A4" s="229" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="208"/>
-      <c r="C4" s="228"/>
-      <c r="D4" s="228"/>
-      <c r="E4" s="229"/>
-      <c r="F4" s="229"/>
-      <c r="G4" s="229"/>
-      <c r="H4" s="229"/>
-      <c r="I4" s="228"/>
-      <c r="J4" s="228"/>
-      <c r="K4" s="228"/>
-      <c r="L4" s="228"/>
-      <c r="M4" s="228"/>
-      <c r="N4" s="228"/>
-      <c r="O4" s="228"/>
-      <c r="P4" s="228"/>
-      <c r="Q4" s="228"/>
-      <c r="R4" s="230"/>
+      <c r="B4" s="230"/>
+      <c r="C4" s="204"/>
+      <c r="D4" s="204"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="204"/>
+      <c r="J4" s="204"/>
+      <c r="K4" s="204"/>
+      <c r="L4" s="204"/>
+      <c r="M4" s="204"/>
+      <c r="N4" s="204"/>
+      <c r="O4" s="204"/>
+      <c r="P4" s="204"/>
+      <c r="Q4" s="204"/>
+      <c r="R4" s="206"/>
     </row>
     <row r="5" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A5" s="217" t="s">
+      <c r="A5" s="239" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="218"/>
-      <c r="C5" s="246" t="s">
+      <c r="B5" s="240"/>
+      <c r="C5" s="222" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="232"/>
-      <c r="E5" s="231" t="s">
+      <c r="D5" s="208"/>
+      <c r="E5" s="207" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="232"/>
-      <c r="G5" s="232"/>
-      <c r="H5" s="243"/>
-      <c r="I5" s="232" t="s">
+      <c r="F5" s="208"/>
+      <c r="G5" s="208"/>
+      <c r="H5" s="219"/>
+      <c r="I5" s="208" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="232"/>
-      <c r="K5" s="232"/>
-      <c r="L5" s="231" t="s">
+      <c r="J5" s="208"/>
+      <c r="K5" s="208"/>
+      <c r="L5" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="232"/>
-      <c r="N5" s="232"/>
-      <c r="O5" s="232"/>
-      <c r="P5" s="232"/>
-      <c r="Q5" s="232"/>
-      <c r="R5" s="233"/>
+      <c r="M5" s="208"/>
+      <c r="N5" s="208"/>
+      <c r="O5" s="208"/>
+      <c r="P5" s="208"/>
+      <c r="Q5" s="208"/>
+      <c r="R5" s="209"/>
       <c r="T5" s="78"/>
     </row>
     <row r="6" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="205">
+      <c r="A6" s="227">
         <f>COUNTIF(E28:HM28,"P")</f>
         <v>3</v>
       </c>
-      <c r="B6" s="206"/>
-      <c r="C6" s="245">
+      <c r="B6" s="228"/>
+      <c r="C6" s="221">
         <f>COUNTIF(E28:HO28,"F")</f>
         <v>1</v>
       </c>
-      <c r="D6" s="235"/>
-      <c r="E6" s="234">
+      <c r="D6" s="211"/>
+      <c r="E6" s="210">
         <f>SUM(L6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="235"/>
-      <c r="G6" s="235"/>
-      <c r="H6" s="244"/>
+      <c r="F6" s="211"/>
+      <c r="G6" s="211"/>
+      <c r="H6" s="220"/>
       <c r="I6" s="154">
         <f>COUNTIF(E27:HM27,"N")</f>
         <v>1</v>
@@ -5772,16 +5774,16 @@
         <f>COUNTIF(E27:HO27,"B")</f>
         <v>0</v>
       </c>
-      <c r="L6" s="234">
+      <c r="L6" s="210">
         <f>COUNTA(E8:R8)</f>
         <v>4</v>
       </c>
-      <c r="M6" s="235"/>
-      <c r="N6" s="235"/>
-      <c r="O6" s="235"/>
-      <c r="P6" s="235"/>
-      <c r="Q6" s="235"/>
-      <c r="R6" s="236"/>
+      <c r="M6" s="211"/>
+      <c r="N6" s="211"/>
+      <c r="O6" s="211"/>
+      <c r="P6" s="211"/>
+      <c r="Q6" s="211"/>
+      <c r="R6" s="212"/>
       <c r="S6" s="155"/>
     </row>
     <row r="7" spans="1:20" ht="11.25" thickBot="1"/>
@@ -5824,8 +5826,12 @@
       <c r="C9" s="122"/>
       <c r="D9" s="123"/>
       <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="111"/>
+      <c r="F9" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="111" t="s">
+        <v>72</v>
+      </c>
       <c r="H9" s="129"/>
       <c r="I9" s="129"/>
       <c r="J9" s="129"/>
@@ -5848,7 +5854,9 @@
       <c r="E10" s="131"/>
       <c r="F10" s="131"/>
       <c r="G10" s="131"/>
-      <c r="H10" s="129"/>
+      <c r="H10" s="111" t="s">
+        <v>72</v>
+      </c>
       <c r="I10" s="129"/>
       <c r="J10" s="129"/>
       <c r="K10" s="129"/>
@@ -5868,7 +5876,9 @@
       <c r="C11" s="122"/>
       <c r="D11" s="123"/>
       <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
+      <c r="F11" s="131" t="s">
+        <v>72</v>
+      </c>
       <c r="G11" s="131"/>
       <c r="H11" s="129"/>
       <c r="I11" s="129"/>
@@ -5891,7 +5901,9 @@
       <c r="D12" s="123"/>
       <c r="E12" s="131"/>
       <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
+      <c r="G12" s="131" t="s">
+        <v>72</v>
+      </c>
       <c r="H12" s="129"/>
       <c r="I12" s="129"/>
       <c r="J12" s="129"/>
@@ -6276,11 +6288,11 @@
     </row>
     <row r="28" spans="1:18" ht="13.5" customHeight="1">
       <c r="A28" s="118"/>
-      <c r="B28" s="240" t="s">
+      <c r="B28" s="216" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="241"/>
-      <c r="D28" s="242"/>
+      <c r="C28" s="217"/>
+      <c r="D28" s="218"/>
       <c r="E28" s="111" t="s">
         <v>42</v>
       </c>
@@ -6306,11 +6318,11 @@
     </row>
     <row r="29" spans="1:18" ht="64.5" customHeight="1">
       <c r="A29" s="118"/>
-      <c r="B29" s="225" t="s">
+      <c r="B29" s="201" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="226"/>
-      <c r="D29" s="227"/>
+      <c r="C29" s="202"/>
+      <c r="D29" s="203"/>
       <c r="E29" s="91">
         <v>42334</v>
       </c>
@@ -6344,20 +6356,6 @@
     <row r="62" s="76" customFormat="1" ht="10.5"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="L6:R6"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:R4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:R5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:H2"/>
@@ -6366,9 +6364,23 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I3:R3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:R4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:R5"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="L6:R6"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B27:D27"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:G26 H15:R26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:G26 H15:R26 H10">
       <formula1>"O, "</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E28:R28">
@@ -6391,8 +6403,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -6412,136 +6424,136 @@
       <c r="B1" s="75"/>
     </row>
     <row r="2" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A2" s="201" t="s">
+      <c r="A2" s="223" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="203" t="s">
+      <c r="B2" s="224"/>
+      <c r="C2" s="225" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="204"/>
-      <c r="E2" s="219" t="s">
+      <c r="D2" s="226"/>
+      <c r="E2" s="241" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="209" t="str">
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
+      <c r="H2" s="243"/>
+      <c r="I2" s="231" t="str">
         <f>C2</f>
         <v>Delete</v>
       </c>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="210"/>
-      <c r="P2" s="210"/>
-      <c r="Q2" s="210"/>
-      <c r="R2" s="211"/>
+      <c r="J2" s="232"/>
+      <c r="K2" s="232"/>
+      <c r="L2" s="232"/>
+      <c r="M2" s="232"/>
+      <c r="N2" s="232"/>
+      <c r="O2" s="232"/>
+      <c r="P2" s="232"/>
+      <c r="Q2" s="232"/>
+      <c r="R2" s="233"/>
       <c r="T2" s="78"/>
     </row>
     <row r="3" spans="1:20" ht="30" customHeight="1">
-      <c r="A3" s="207" t="s">
+      <c r="A3" s="229" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="208"/>
-      <c r="C3" s="215" t="str">
+      <c r="B3" s="230"/>
+      <c r="C3" s="237" t="str">
         <f>Cover!F4</f>
         <v>ManhLNSE02619</v>
       </c>
-      <c r="D3" s="216"/>
-      <c r="E3" s="222" t="s">
+      <c r="D3" s="238"/>
+      <c r="E3" s="244" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="223"/>
-      <c r="G3" s="223"/>
-      <c r="H3" s="224"/>
-      <c r="I3" s="212" t="str">
+      <c r="F3" s="245"/>
+      <c r="G3" s="245"/>
+      <c r="H3" s="246"/>
+      <c r="I3" s="234" t="str">
         <f>C3</f>
         <v>ManhLNSE02619</v>
       </c>
-      <c r="J3" s="213"/>
-      <c r="K3" s="213"/>
-      <c r="L3" s="213"/>
-      <c r="M3" s="213"/>
-      <c r="N3" s="213"/>
-      <c r="O3" s="213"/>
-      <c r="P3" s="213"/>
-      <c r="Q3" s="213"/>
-      <c r="R3" s="214"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="235"/>
+      <c r="M3" s="235"/>
+      <c r="N3" s="235"/>
+      <c r="O3" s="235"/>
+      <c r="P3" s="235"/>
+      <c r="Q3" s="235"/>
+      <c r="R3" s="236"/>
     </row>
     <row r="4" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A4" s="207" t="s">
+      <c r="A4" s="229" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="208"/>
-      <c r="C4" s="228"/>
-      <c r="D4" s="228"/>
-      <c r="E4" s="229"/>
-      <c r="F4" s="229"/>
-      <c r="G4" s="229"/>
-      <c r="H4" s="229"/>
-      <c r="I4" s="228"/>
-      <c r="J4" s="228"/>
-      <c r="K4" s="228"/>
-      <c r="L4" s="228"/>
-      <c r="M4" s="228"/>
-      <c r="N4" s="228"/>
-      <c r="O4" s="228"/>
-      <c r="P4" s="228"/>
-      <c r="Q4" s="228"/>
-      <c r="R4" s="230"/>
+      <c r="B4" s="230"/>
+      <c r="C4" s="204"/>
+      <c r="D4" s="204"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="204"/>
+      <c r="J4" s="204"/>
+      <c r="K4" s="204"/>
+      <c r="L4" s="204"/>
+      <c r="M4" s="204"/>
+      <c r="N4" s="204"/>
+      <c r="O4" s="204"/>
+      <c r="P4" s="204"/>
+      <c r="Q4" s="204"/>
+      <c r="R4" s="206"/>
     </row>
     <row r="5" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A5" s="217" t="s">
+      <c r="A5" s="239" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="218"/>
-      <c r="C5" s="246" t="s">
+      <c r="B5" s="240"/>
+      <c r="C5" s="222" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="232"/>
-      <c r="E5" s="231" t="s">
+      <c r="D5" s="208"/>
+      <c r="E5" s="207" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="232"/>
-      <c r="G5" s="232"/>
-      <c r="H5" s="243"/>
-      <c r="I5" s="232" t="s">
+      <c r="F5" s="208"/>
+      <c r="G5" s="208"/>
+      <c r="H5" s="219"/>
+      <c r="I5" s="208" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="232"/>
-      <c r="K5" s="232"/>
-      <c r="L5" s="231" t="s">
+      <c r="J5" s="208"/>
+      <c r="K5" s="208"/>
+      <c r="L5" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="232"/>
-      <c r="N5" s="232"/>
-      <c r="O5" s="232"/>
-      <c r="P5" s="232"/>
-      <c r="Q5" s="232"/>
-      <c r="R5" s="233"/>
+      <c r="M5" s="208"/>
+      <c r="N5" s="208"/>
+      <c r="O5" s="208"/>
+      <c r="P5" s="208"/>
+      <c r="Q5" s="208"/>
+      <c r="R5" s="209"/>
       <c r="T5" s="78"/>
     </row>
     <row r="6" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="205">
+      <c r="A6" s="227">
         <f>COUNTIF(E30:HM30,"P")</f>
         <v>4</v>
       </c>
-      <c r="B6" s="206"/>
-      <c r="C6" s="245">
+      <c r="B6" s="228"/>
+      <c r="C6" s="221">
         <f>COUNTIF(E30:HO30,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="235"/>
-      <c r="E6" s="234">
+      <c r="D6" s="211"/>
+      <c r="E6" s="210">
         <f>SUM(L6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="235"/>
-      <c r="G6" s="235"/>
-      <c r="H6" s="244"/>
+      <c r="F6" s="211"/>
+      <c r="G6" s="211"/>
+      <c r="H6" s="220"/>
       <c r="I6" s="154">
         <f>COUNTIF(E29:HM29,"N")</f>
         <v>1</v>
@@ -6554,16 +6566,16 @@
         <f>COUNTIF(E29:HO29,"B")</f>
         <v>0</v>
       </c>
-      <c r="L6" s="234">
+      <c r="L6" s="210">
         <f>COUNTA(E8:P8)</f>
         <v>4</v>
       </c>
-      <c r="M6" s="235"/>
-      <c r="N6" s="235"/>
-      <c r="O6" s="235"/>
-      <c r="P6" s="235"/>
-      <c r="Q6" s="235"/>
-      <c r="R6" s="236"/>
+      <c r="M6" s="211"/>
+      <c r="N6" s="211"/>
+      <c r="O6" s="211"/>
+      <c r="P6" s="211"/>
+      <c r="Q6" s="211"/>
+      <c r="R6" s="212"/>
       <c r="S6" s="155"/>
     </row>
     <row r="7" spans="1:20" ht="11.25" thickBot="1"/>
@@ -6606,8 +6618,12 @@
       <c r="C9" s="122"/>
       <c r="D9" s="123"/>
       <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="111"/>
+      <c r="F9" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="111" t="s">
+        <v>72</v>
+      </c>
       <c r="H9" s="129"/>
       <c r="I9" s="129"/>
       <c r="J9" s="129"/>
@@ -6630,7 +6646,9 @@
       <c r="E10" s="131"/>
       <c r="F10" s="131"/>
       <c r="G10" s="131"/>
-      <c r="H10" s="129"/>
+      <c r="H10" s="111" t="s">
+        <v>72</v>
+      </c>
       <c r="I10" s="129"/>
       <c r="J10" s="129"/>
       <c r="K10" s="129"/>
@@ -6650,7 +6668,9 @@
       <c r="C11" s="122"/>
       <c r="D11" s="123"/>
       <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
+      <c r="F11" s="131" t="s">
+        <v>72</v>
+      </c>
       <c r="G11" s="131"/>
       <c r="H11" s="129"/>
       <c r="I11" s="129"/>
@@ -6673,7 +6693,9 @@
       <c r="D12" s="123"/>
       <c r="E12" s="131"/>
       <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
+      <c r="G12" s="131" t="s">
+        <v>72</v>
+      </c>
       <c r="H12" s="129"/>
       <c r="I12" s="129"/>
       <c r="J12" s="129"/>
@@ -7092,11 +7114,11 @@
     </row>
     <row r="30" spans="1:18" ht="13.5" customHeight="1">
       <c r="A30" s="118"/>
-      <c r="B30" s="240" t="s">
+      <c r="B30" s="216" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="241"/>
-      <c r="D30" s="242"/>
+      <c r="C30" s="217"/>
+      <c r="D30" s="218"/>
       <c r="E30" s="111" t="s">
         <v>42</v>
       </c>
@@ -7122,11 +7144,846 @@
     </row>
     <row r="31" spans="1:18" ht="64.5" customHeight="1">
       <c r="A31" s="118"/>
-      <c r="B31" s="225" t="s">
+      <c r="B31" s="201" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="226"/>
-      <c r="D31" s="227"/>
+      <c r="C31" s="202"/>
+      <c r="D31" s="203"/>
+      <c r="E31" s="91">
+        <v>42334</v>
+      </c>
+      <c r="F31" s="91">
+        <v>42334</v>
+      </c>
+      <c r="G31" s="91">
+        <v>42334</v>
+      </c>
+      <c r="H31" s="91">
+        <v>42334</v>
+      </c>
+      <c r="I31" s="91"/>
+      <c r="J31" s="91"/>
+      <c r="K31" s="91"/>
+      <c r="L31" s="91"/>
+      <c r="M31" s="91"/>
+      <c r="N31" s="91"/>
+      <c r="O31" s="91"/>
+      <c r="P31" s="91"/>
+      <c r="Q31" s="91"/>
+      <c r="R31" s="91"/>
+    </row>
+    <row r="32" spans="1:18" ht="13.5" customHeight="1">
+      <c r="A32" s="116"/>
+    </row>
+    <row r="49" s="76" customFormat="1" ht="24" customHeight="1"/>
+    <row r="50" s="76" customFormat="1" ht="39" customHeight="1"/>
+    <row r="62" s="76" customFormat="1" ht="57" customHeight="1"/>
+    <row r="63" s="76" customFormat="1" ht="10.5"/>
+    <row r="64" s="76" customFormat="1" ht="10.5"/>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:R2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:R3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:R4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:R5"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="L6:R6"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E30:R30">
+      <formula1>"P,F, "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E29:R29">
+      <formula1>"N,A,B, "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:G19 H13:H19 E20:H28 I13:R28 H10">
+      <formula1>"O, "</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;L&amp;"Tahoma,Regular"&amp;10 02ae-BM/PM/HDCV/FSOFT v2/1&amp;C&amp;"Tahoma,Regular"&amp;10Internal use&amp;R&amp;"Tahoma,Regular"&amp;10&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T64"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="10.5" style="76" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="79" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="76" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="77" customWidth="1"/>
+    <col min="5" max="6" width="2.875" style="76" customWidth="1"/>
+    <col min="7" max="7" width="2.625" style="76" customWidth="1"/>
+    <col min="8" max="19" width="2.875" style="76" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="76"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A1" s="74"/>
+      <c r="B1" s="75"/>
+    </row>
+    <row r="2" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A2" s="223" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="224"/>
+      <c r="C2" s="225" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="226"/>
+      <c r="E2" s="241" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
+      <c r="H2" s="243"/>
+      <c r="I2" s="231" t="str">
+        <f>C2</f>
+        <v>DeleteMessageList</v>
+      </c>
+      <c r="J2" s="232"/>
+      <c r="K2" s="232"/>
+      <c r="L2" s="232"/>
+      <c r="M2" s="232"/>
+      <c r="N2" s="232"/>
+      <c r="O2" s="232"/>
+      <c r="P2" s="232"/>
+      <c r="Q2" s="232"/>
+      <c r="R2" s="233"/>
+      <c r="T2" s="78"/>
+    </row>
+    <row r="3" spans="1:20" ht="30" customHeight="1">
+      <c r="A3" s="229" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="230"/>
+      <c r="C3" s="237" t="str">
+        <f>Cover!F4</f>
+        <v>ManhLNSE02619</v>
+      </c>
+      <c r="D3" s="238"/>
+      <c r="E3" s="244" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="245"/>
+      <c r="G3" s="245"/>
+      <c r="H3" s="246"/>
+      <c r="I3" s="234" t="str">
+        <f>C3</f>
+        <v>ManhLNSE02619</v>
+      </c>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="235"/>
+      <c r="M3" s="235"/>
+      <c r="N3" s="235"/>
+      <c r="O3" s="235"/>
+      <c r="P3" s="235"/>
+      <c r="Q3" s="235"/>
+      <c r="R3" s="236"/>
+    </row>
+    <row r="4" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A4" s="229" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="230"/>
+      <c r="C4" s="204"/>
+      <c r="D4" s="204"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="204"/>
+      <c r="J4" s="204"/>
+      <c r="K4" s="204"/>
+      <c r="L4" s="204"/>
+      <c r="M4" s="204"/>
+      <c r="N4" s="204"/>
+      <c r="O4" s="204"/>
+      <c r="P4" s="204"/>
+      <c r="Q4" s="204"/>
+      <c r="R4" s="206"/>
+    </row>
+    <row r="5" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A5" s="239" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="240"/>
+      <c r="C5" s="222" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="208"/>
+      <c r="E5" s="207" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="208"/>
+      <c r="G5" s="208"/>
+      <c r="H5" s="219"/>
+      <c r="I5" s="208" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="208"/>
+      <c r="K5" s="208"/>
+      <c r="L5" s="207" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="208"/>
+      <c r="N5" s="208"/>
+      <c r="O5" s="208"/>
+      <c r="P5" s="208"/>
+      <c r="Q5" s="208"/>
+      <c r="R5" s="209"/>
+      <c r="T5" s="78"/>
+    </row>
+    <row r="6" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A6" s="227">
+        <f>COUNTIF(E30:HM30,"P")</f>
+        <v>4</v>
+      </c>
+      <c r="B6" s="228"/>
+      <c r="C6" s="221">
+        <f>COUNTIF(E30:HO30,"F")</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="211"/>
+      <c r="E6" s="210">
+        <f>SUM(L6,- A6,- C6)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="211"/>
+      <c r="G6" s="211"/>
+      <c r="H6" s="220"/>
+      <c r="I6" s="154">
+        <f>COUNTIF(E29:HM29,"N")</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="154">
+        <f>COUNTIF(E29:HM29,"A")</f>
+        <v>3</v>
+      </c>
+      <c r="K6" s="154">
+        <f>COUNTIF(E29:HO29,"B")</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="210">
+        <f>COUNTA(E8:P8)</f>
+        <v>4</v>
+      </c>
+      <c r="M6" s="211"/>
+      <c r="N6" s="211"/>
+      <c r="O6" s="211"/>
+      <c r="P6" s="211"/>
+      <c r="Q6" s="211"/>
+      <c r="R6" s="212"/>
+      <c r="S6" s="155"/>
+    </row>
+    <row r="7" spans="1:20" ht="11.25" thickBot="1"/>
+    <row r="8" spans="1:20" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A8" s="128"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="127" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="127" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="127" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="127"/>
+      <c r="J8" s="127"/>
+      <c r="K8" s="127"/>
+      <c r="L8" s="127"/>
+      <c r="M8" s="127"/>
+      <c r="N8" s="127"/>
+      <c r="O8" s="127"/>
+      <c r="P8" s="127"/>
+      <c r="Q8" s="127"/>
+      <c r="R8" s="172"/>
+      <c r="S8" s="155"/>
+    </row>
+    <row r="9" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A9" s="120" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="121" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="122"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="129"/>
+      <c r="I9" s="129"/>
+      <c r="J9" s="129"/>
+      <c r="K9" s="129"/>
+      <c r="L9" s="129"/>
+      <c r="M9" s="156"/>
+      <c r="N9" s="156"/>
+      <c r="O9" s="156"/>
+      <c r="P9" s="156"/>
+      <c r="Q9" s="156"/>
+      <c r="R9" s="129"/>
+    </row>
+    <row r="10" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A10" s="117"/>
+      <c r="B10" s="121" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="122"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="129"/>
+      <c r="J10" s="129"/>
+      <c r="K10" s="129"/>
+      <c r="L10" s="129"/>
+      <c r="M10" s="156"/>
+      <c r="N10" s="156"/>
+      <c r="O10" s="156"/>
+      <c r="P10" s="156"/>
+      <c r="Q10" s="156"/>
+      <c r="R10" s="129"/>
+    </row>
+    <row r="11" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A11" s="117"/>
+      <c r="B11" s="121" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="122"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="131"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="129"/>
+      <c r="K11" s="129"/>
+      <c r="L11" s="129"/>
+      <c r="M11" s="156"/>
+      <c r="N11" s="156"/>
+      <c r="O11" s="156"/>
+      <c r="P11" s="156"/>
+      <c r="Q11" s="156"/>
+      <c r="R11" s="129"/>
+    </row>
+    <row r="12" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A12" s="117"/>
+      <c r="B12" s="121" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="122"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="129"/>
+      <c r="I12" s="129"/>
+      <c r="J12" s="129"/>
+      <c r="K12" s="129"/>
+      <c r="L12" s="129"/>
+      <c r="M12" s="156"/>
+      <c r="N12" s="156"/>
+      <c r="O12" s="156"/>
+      <c r="P12" s="156"/>
+      <c r="Q12" s="156"/>
+      <c r="R12" s="129"/>
+    </row>
+    <row r="13" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A13" s="120" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="121" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="122"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="129"/>
+      <c r="K13" s="129"/>
+      <c r="L13" s="129"/>
+      <c r="M13" s="156"/>
+      <c r="N13" s="156"/>
+      <c r="O13" s="156"/>
+      <c r="P13" s="156"/>
+      <c r="Q13" s="156"/>
+      <c r="R13" s="129"/>
+    </row>
+    <row r="14" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A14" s="117"/>
+      <c r="B14" s="160"/>
+      <c r="C14" s="157"/>
+      <c r="D14" s="158" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="111"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="159"/>
+      <c r="N14" s="159"/>
+      <c r="O14" s="159"/>
+      <c r="P14" s="159"/>
+      <c r="Q14" s="159"/>
+      <c r="R14" s="111"/>
+    </row>
+    <row r="15" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A15" s="117"/>
+      <c r="B15" s="160"/>
+      <c r="C15" s="157"/>
+      <c r="D15" s="158" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="111"/>
+      <c r="F15" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="111"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="111"/>
+      <c r="L15" s="111"/>
+      <c r="M15" s="159"/>
+      <c r="N15" s="159"/>
+      <c r="O15" s="159"/>
+      <c r="P15" s="159"/>
+      <c r="Q15" s="159"/>
+      <c r="R15" s="111"/>
+    </row>
+    <row r="16" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A16" s="117"/>
+      <c r="B16" s="160"/>
+      <c r="C16" s="157"/>
+      <c r="D16" s="158" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" s="111"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="111"/>
+      <c r="M16" s="159"/>
+      <c r="N16" s="159"/>
+      <c r="O16" s="159"/>
+      <c r="P16" s="159"/>
+      <c r="Q16" s="159"/>
+      <c r="R16" s="111"/>
+    </row>
+    <row r="17" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A17" s="117"/>
+      <c r="B17" s="179" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="80"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="111"/>
+      <c r="M17" s="159"/>
+      <c r="N17" s="159"/>
+      <c r="O17" s="159"/>
+      <c r="P17" s="159"/>
+      <c r="Q17" s="159"/>
+      <c r="R17" s="111"/>
+    </row>
+    <row r="18" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A18" s="117"/>
+      <c r="B18" s="161"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="81">
+        <v>100</v>
+      </c>
+      <c r="E18" s="111"/>
+      <c r="F18" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="111"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="111"/>
+      <c r="K18" s="111"/>
+      <c r="L18" s="111"/>
+      <c r="M18" s="159"/>
+      <c r="N18" s="159"/>
+      <c r="O18" s="159"/>
+      <c r="P18" s="159"/>
+      <c r="Q18" s="159"/>
+      <c r="R18" s="111"/>
+    </row>
+    <row r="19" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A19" s="117"/>
+      <c r="B19" s="161"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="81">
+        <v>10</v>
+      </c>
+      <c r="E19" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="111"/>
+      <c r="G19" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="111"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="111"/>
+      <c r="L19" s="111"/>
+      <c r="M19" s="159"/>
+      <c r="N19" s="159"/>
+      <c r="O19" s="159"/>
+      <c r="P19" s="159"/>
+      <c r="Q19" s="159"/>
+      <c r="R19" s="111"/>
+    </row>
+    <row r="20" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A20" s="117"/>
+      <c r="B20" s="161"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="81">
+        <v>11</v>
+      </c>
+      <c r="E20" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="111"/>
+      <c r="J20" s="111"/>
+      <c r="K20" s="111"/>
+      <c r="L20" s="111"/>
+      <c r="M20" s="159"/>
+      <c r="N20" s="159"/>
+      <c r="O20" s="159"/>
+      <c r="P20" s="159"/>
+      <c r="Q20" s="159"/>
+      <c r="R20" s="111"/>
+    </row>
+    <row r="21" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A21" s="117"/>
+      <c r="B21" s="161"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="111"/>
+      <c r="M21" s="159"/>
+      <c r="N21" s="159"/>
+      <c r="O21" s="159"/>
+      <c r="P21" s="159"/>
+      <c r="Q21" s="159"/>
+      <c r="R21" s="111"/>
+    </row>
+    <row r="22" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A22" s="117"/>
+      <c r="B22" s="161"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="111"/>
+      <c r="K22" s="111"/>
+      <c r="L22" s="111"/>
+      <c r="M22" s="159"/>
+      <c r="N22" s="159"/>
+      <c r="O22" s="159"/>
+      <c r="P22" s="159"/>
+      <c r="Q22" s="159"/>
+      <c r="R22" s="111"/>
+    </row>
+    <row r="23" spans="1:18" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A23" s="117"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="130"/>
+      <c r="G23" s="130"/>
+      <c r="H23" s="130"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="130"/>
+      <c r="K23" s="130"/>
+      <c r="L23" s="130"/>
+      <c r="M23" s="162"/>
+      <c r="N23" s="162"/>
+      <c r="O23" s="162"/>
+      <c r="P23" s="162"/>
+      <c r="Q23" s="162"/>
+      <c r="R23" s="130"/>
+    </row>
+    <row r="24" spans="1:18" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A24" s="119" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="88" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" s="86"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="131" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131" t="s">
+        <v>72</v>
+      </c>
+      <c r="I24" s="131"/>
+      <c r="J24" s="131"/>
+      <c r="K24" s="131"/>
+      <c r="L24" s="131"/>
+      <c r="M24" s="163"/>
+      <c r="N24" s="163"/>
+      <c r="O24" s="163"/>
+      <c r="P24" s="163"/>
+      <c r="Q24" s="163"/>
+      <c r="R24" s="131"/>
+    </row>
+    <row r="25" spans="1:18" ht="13.5" customHeight="1">
+      <c r="A25" s="118"/>
+      <c r="B25" s="88" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" s="89"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" s="111"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="111"/>
+      <c r="J25" s="111"/>
+      <c r="K25" s="111"/>
+      <c r="L25" s="111"/>
+      <c r="M25" s="159"/>
+      <c r="N25" s="159"/>
+      <c r="O25" s="159"/>
+      <c r="P25" s="159"/>
+      <c r="Q25" s="159"/>
+      <c r="R25" s="111"/>
+    </row>
+    <row r="26" spans="1:18" ht="13.5" customHeight="1">
+      <c r="A26" s="118"/>
+      <c r="B26" s="88" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" s="89"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="111"/>
+      <c r="I26" s="111"/>
+      <c r="J26" s="111"/>
+      <c r="K26" s="111"/>
+      <c r="L26" s="111"/>
+      <c r="M26" s="159"/>
+      <c r="N26" s="159"/>
+      <c r="O26" s="159"/>
+      <c r="P26" s="159"/>
+      <c r="Q26" s="159"/>
+      <c r="R26" s="111"/>
+    </row>
+    <row r="27" spans="1:18" ht="13.5" customHeight="1">
+      <c r="A27" s="118"/>
+      <c r="B27" s="88" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" s="89"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="111"/>
+      <c r="I27" s="111"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="111"/>
+      <c r="L27" s="111"/>
+      <c r="M27" s="159"/>
+      <c r="N27" s="159"/>
+      <c r="O27" s="159"/>
+      <c r="P27" s="159"/>
+      <c r="Q27" s="159"/>
+      <c r="R27" s="111"/>
+    </row>
+    <row r="28" spans="1:18" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A28" s="118"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="164"/>
+      <c r="D28" s="165"/>
+      <c r="E28" s="166"/>
+      <c r="F28" s="166"/>
+      <c r="G28" s="166"/>
+      <c r="H28" s="166"/>
+      <c r="I28" s="166"/>
+      <c r="J28" s="166"/>
+      <c r="K28" s="166"/>
+      <c r="L28" s="166"/>
+      <c r="M28" s="169"/>
+      <c r="N28" s="169"/>
+      <c r="O28" s="169"/>
+      <c r="P28" s="169"/>
+      <c r="Q28" s="169"/>
+      <c r="R28" s="170"/>
+    </row>
+    <row r="29" spans="1:18" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A29" s="119" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="247" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="248"/>
+      <c r="D29" s="249"/>
+      <c r="E29" s="171" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="171" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="171" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" s="171" t="s">
+        <v>40</v>
+      </c>
+      <c r="I29" s="171"/>
+      <c r="J29" s="171"/>
+      <c r="K29" s="171"/>
+      <c r="L29" s="171"/>
+      <c r="M29" s="171"/>
+      <c r="N29" s="171"/>
+      <c r="O29" s="171"/>
+      <c r="P29" s="171"/>
+      <c r="Q29" s="171"/>
+      <c r="R29" s="171"/>
+    </row>
+    <row r="30" spans="1:18" ht="13.5" customHeight="1">
+      <c r="A30" s="118"/>
+      <c r="B30" s="216" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="217"/>
+      <c r="D30" s="218"/>
+      <c r="E30" s="111" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="111" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="111" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" s="111" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30" s="111"/>
+      <c r="J30" s="111"/>
+      <c r="K30" s="111"/>
+      <c r="L30" s="111"/>
+      <c r="M30" s="111"/>
+      <c r="N30" s="111"/>
+      <c r="O30" s="111"/>
+      <c r="P30" s="111"/>
+      <c r="Q30" s="111"/>
+      <c r="R30" s="111"/>
+    </row>
+    <row r="31" spans="1:18" ht="64.5" customHeight="1">
+      <c r="A31" s="118"/>
+      <c r="B31" s="201" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="202"/>
+      <c r="D31" s="203"/>
       <c r="E31" s="91">
         <v>42334</v>
       </c>
@@ -7184,832 +8041,7 @@
     <mergeCell ref="I3:R3"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E30:R30">
-      <formula1>"P,F, "</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E29:R29">
-      <formula1>"N,A,B, "</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:G19 H13:H19 E20:H28 I13:R28">
-      <formula1>"O, "</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Tahoma,Regular"&amp;10 02ae-BM/PM/HDCV/FSOFT v2/1&amp;C&amp;"Tahoma,Regular"&amp;10Internal use&amp;R&amp;"Tahoma,Regular"&amp;10&amp;P/&amp;N</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T64"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="10.5" style="76" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="79" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="76" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="77" customWidth="1"/>
-    <col min="5" max="6" width="2.875" style="76" customWidth="1"/>
-    <col min="7" max="7" width="2.625" style="76" customWidth="1"/>
-    <col min="8" max="19" width="2.875" style="76" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="76"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A1" s="74"/>
-      <c r="B1" s="75"/>
-    </row>
-    <row r="2" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A2" s="201" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="203" t="s">
-        <v>162</v>
-      </c>
-      <c r="D2" s="204"/>
-      <c r="E2" s="219" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="209" t="str">
-        <f>C2</f>
-        <v>DeleteMessageList</v>
-      </c>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="210"/>
-      <c r="P2" s="210"/>
-      <c r="Q2" s="210"/>
-      <c r="R2" s="211"/>
-      <c r="T2" s="78"/>
-    </row>
-    <row r="3" spans="1:20" ht="30" customHeight="1">
-      <c r="A3" s="207" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="208"/>
-      <c r="C3" s="215" t="str">
-        <f>Cover!F4</f>
-        <v>ManhLNSE02619</v>
-      </c>
-      <c r="D3" s="216"/>
-      <c r="E3" s="222" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="223"/>
-      <c r="G3" s="223"/>
-      <c r="H3" s="224"/>
-      <c r="I3" s="212" t="str">
-        <f>C3</f>
-        <v>ManhLNSE02619</v>
-      </c>
-      <c r="J3" s="213"/>
-      <c r="K3" s="213"/>
-      <c r="L3" s="213"/>
-      <c r="M3" s="213"/>
-      <c r="N3" s="213"/>
-      <c r="O3" s="213"/>
-      <c r="P3" s="213"/>
-      <c r="Q3" s="213"/>
-      <c r="R3" s="214"/>
-    </row>
-    <row r="4" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A4" s="207" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="208"/>
-      <c r="C4" s="228"/>
-      <c r="D4" s="228"/>
-      <c r="E4" s="229"/>
-      <c r="F4" s="229"/>
-      <c r="G4" s="229"/>
-      <c r="H4" s="229"/>
-      <c r="I4" s="228"/>
-      <c r="J4" s="228"/>
-      <c r="K4" s="228"/>
-      <c r="L4" s="228"/>
-      <c r="M4" s="228"/>
-      <c r="N4" s="228"/>
-      <c r="O4" s="228"/>
-      <c r="P4" s="228"/>
-      <c r="Q4" s="228"/>
-      <c r="R4" s="230"/>
-    </row>
-    <row r="5" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A5" s="217" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="218"/>
-      <c r="C5" s="246" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="232"/>
-      <c r="E5" s="231" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="232"/>
-      <c r="G5" s="232"/>
-      <c r="H5" s="243"/>
-      <c r="I5" s="232" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" s="232"/>
-      <c r="K5" s="232"/>
-      <c r="L5" s="231" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="232"/>
-      <c r="N5" s="232"/>
-      <c r="O5" s="232"/>
-      <c r="P5" s="232"/>
-      <c r="Q5" s="232"/>
-      <c r="R5" s="233"/>
-      <c r="T5" s="78"/>
-    </row>
-    <row r="6" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="205">
-        <f>COUNTIF(E30:HM30,"P")</f>
-        <v>4</v>
-      </c>
-      <c r="B6" s="206"/>
-      <c r="C6" s="245">
-        <f>COUNTIF(E30:HO30,"F")</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="235"/>
-      <c r="E6" s="234">
-        <f>SUM(L6,- A6,- C6)</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="235"/>
-      <c r="G6" s="235"/>
-      <c r="H6" s="244"/>
-      <c r="I6" s="154">
-        <f>COUNTIF(E29:HM29,"N")</f>
-        <v>1</v>
-      </c>
-      <c r="J6" s="154">
-        <f>COUNTIF(E29:HM29,"A")</f>
-        <v>3</v>
-      </c>
-      <c r="K6" s="154">
-        <f>COUNTIF(E29:HO29,"B")</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="234">
-        <f>COUNTA(E8:P8)</f>
-        <v>4</v>
-      </c>
-      <c r="M6" s="235"/>
-      <c r="N6" s="235"/>
-      <c r="O6" s="235"/>
-      <c r="P6" s="235"/>
-      <c r="Q6" s="235"/>
-      <c r="R6" s="236"/>
-      <c r="S6" s="155"/>
-    </row>
-    <row r="7" spans="1:20" ht="11.25" thickBot="1"/>
-    <row r="8" spans="1:20" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A8" s="128"/>
-      <c r="B8" s="124"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="127" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="127" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="127" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="127"/>
-      <c r="J8" s="127"/>
-      <c r="K8" s="127"/>
-      <c r="L8" s="127"/>
-      <c r="M8" s="127"/>
-      <c r="N8" s="127"/>
-      <c r="O8" s="127"/>
-      <c r="P8" s="127"/>
-      <c r="Q8" s="127"/>
-      <c r="R8" s="172"/>
-      <c r="S8" s="155"/>
-    </row>
-    <row r="9" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A9" s="120" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="121" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="122"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="129"/>
-      <c r="I9" s="129"/>
-      <c r="J9" s="129"/>
-      <c r="K9" s="129"/>
-      <c r="L9" s="129"/>
-      <c r="M9" s="156"/>
-      <c r="N9" s="156"/>
-      <c r="O9" s="156"/>
-      <c r="P9" s="156"/>
-      <c r="Q9" s="156"/>
-      <c r="R9" s="129"/>
-    </row>
-    <row r="10" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A10" s="117"/>
-      <c r="B10" s="121" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="122"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="129"/>
-      <c r="I10" s="129"/>
-      <c r="J10" s="129"/>
-      <c r="K10" s="129"/>
-      <c r="L10" s="129"/>
-      <c r="M10" s="156"/>
-      <c r="N10" s="156"/>
-      <c r="O10" s="156"/>
-      <c r="P10" s="156"/>
-      <c r="Q10" s="156"/>
-      <c r="R10" s="129"/>
-    </row>
-    <row r="11" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A11" s="117"/>
-      <c r="B11" s="121" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11" s="122"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="129"/>
-      <c r="K11" s="129"/>
-      <c r="L11" s="129"/>
-      <c r="M11" s="156"/>
-      <c r="N11" s="156"/>
-      <c r="O11" s="156"/>
-      <c r="P11" s="156"/>
-      <c r="Q11" s="156"/>
-      <c r="R11" s="129"/>
-    </row>
-    <row r="12" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A12" s="117"/>
-      <c r="B12" s="121" t="s">
-        <v>163</v>
-      </c>
-      <c r="C12" s="122"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="129"/>
-      <c r="J12" s="129"/>
-      <c r="K12" s="129"/>
-      <c r="L12" s="129"/>
-      <c r="M12" s="156"/>
-      <c r="N12" s="156"/>
-      <c r="O12" s="156"/>
-      <c r="P12" s="156"/>
-      <c r="Q12" s="156"/>
-      <c r="R12" s="129"/>
-    </row>
-    <row r="13" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A13" s="120" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="121" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="122"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="129"/>
-      <c r="J13" s="129"/>
-      <c r="K13" s="129"/>
-      <c r="L13" s="129"/>
-      <c r="M13" s="156"/>
-      <c r="N13" s="156"/>
-      <c r="O13" s="156"/>
-      <c r="P13" s="156"/>
-      <c r="Q13" s="156"/>
-      <c r="R13" s="129"/>
-    </row>
-    <row r="14" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A14" s="117"/>
-      <c r="B14" s="160"/>
-      <c r="C14" s="157"/>
-      <c r="D14" s="158" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="111" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="111"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="111"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="111"/>
-      <c r="M14" s="159"/>
-      <c r="N14" s="159"/>
-      <c r="O14" s="159"/>
-      <c r="P14" s="159"/>
-      <c r="Q14" s="159"/>
-      <c r="R14" s="111"/>
-    </row>
-    <row r="15" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A15" s="117"/>
-      <c r="B15" s="160"/>
-      <c r="C15" s="157"/>
-      <c r="D15" s="158" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="111" t="s">
-        <v>72</v>
-      </c>
-      <c r="H15" s="111"/>
-      <c r="I15" s="111"/>
-      <c r="J15" s="111"/>
-      <c r="K15" s="111"/>
-      <c r="L15" s="111"/>
-      <c r="M15" s="159"/>
-      <c r="N15" s="159"/>
-      <c r="O15" s="159"/>
-      <c r="P15" s="159"/>
-      <c r="Q15" s="159"/>
-      <c r="R15" s="111"/>
-    </row>
-    <row r="16" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A16" s="117"/>
-      <c r="B16" s="160"/>
-      <c r="C16" s="157"/>
-      <c r="D16" s="158" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111" t="s">
-        <v>72</v>
-      </c>
-      <c r="I16" s="111"/>
-      <c r="J16" s="111"/>
-      <c r="K16" s="111"/>
-      <c r="L16" s="111"/>
-      <c r="M16" s="159"/>
-      <c r="N16" s="159"/>
-      <c r="O16" s="159"/>
-      <c r="P16" s="159"/>
-      <c r="Q16" s="159"/>
-      <c r="R16" s="111"/>
-    </row>
-    <row r="17" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A17" s="117"/>
-      <c r="B17" s="179" t="s">
-        <v>140</v>
-      </c>
-      <c r="C17" s="80"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="111"/>
-      <c r="K17" s="111"/>
-      <c r="L17" s="111"/>
-      <c r="M17" s="159"/>
-      <c r="N17" s="159"/>
-      <c r="O17" s="159"/>
-      <c r="P17" s="159"/>
-      <c r="Q17" s="159"/>
-      <c r="R17" s="111"/>
-    </row>
-    <row r="18" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A18" s="117"/>
-      <c r="B18" s="161"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="81">
-        <v>100</v>
-      </c>
-      <c r="E18" s="111"/>
-      <c r="F18" s="111" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" s="111"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="111"/>
-      <c r="K18" s="111"/>
-      <c r="L18" s="111"/>
-      <c r="M18" s="159"/>
-      <c r="N18" s="159"/>
-      <c r="O18" s="159"/>
-      <c r="P18" s="159"/>
-      <c r="Q18" s="159"/>
-      <c r="R18" s="111"/>
-    </row>
-    <row r="19" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A19" s="117"/>
-      <c r="B19" s="161"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="81">
-        <v>10</v>
-      </c>
-      <c r="E19" s="111" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="111"/>
-      <c r="G19" s="111" t="s">
-        <v>72</v>
-      </c>
-      <c r="H19" s="111" t="s">
-        <v>72</v>
-      </c>
-      <c r="I19" s="111"/>
-      <c r="J19" s="111"/>
-      <c r="K19" s="111"/>
-      <c r="L19" s="111"/>
-      <c r="M19" s="159"/>
-      <c r="N19" s="159"/>
-      <c r="O19" s="159"/>
-      <c r="P19" s="159"/>
-      <c r="Q19" s="159"/>
-      <c r="R19" s="111"/>
-    </row>
-    <row r="20" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A20" s="117"/>
-      <c r="B20" s="161"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="81">
-        <v>11</v>
-      </c>
-      <c r="E20" s="111" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="111" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="111" t="s">
-        <v>72</v>
-      </c>
-      <c r="H20" s="111" t="s">
-        <v>72</v>
-      </c>
-      <c r="I20" s="111"/>
-      <c r="J20" s="111"/>
-      <c r="K20" s="111"/>
-      <c r="L20" s="111"/>
-      <c r="M20" s="159"/>
-      <c r="N20" s="159"/>
-      <c r="O20" s="159"/>
-      <c r="P20" s="159"/>
-      <c r="Q20" s="159"/>
-      <c r="R20" s="111"/>
-    </row>
-    <row r="21" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A21" s="117"/>
-      <c r="B21" s="161"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="111"/>
-      <c r="G21" s="111"/>
-      <c r="H21" s="111"/>
-      <c r="I21" s="111"/>
-      <c r="J21" s="111"/>
-      <c r="K21" s="111"/>
-      <c r="L21" s="111"/>
-      <c r="M21" s="159"/>
-      <c r="N21" s="159"/>
-      <c r="O21" s="159"/>
-      <c r="P21" s="159"/>
-      <c r="Q21" s="159"/>
-      <c r="R21" s="111"/>
-    </row>
-    <row r="22" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A22" s="117"/>
-      <c r="B22" s="161"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="111"/>
-      <c r="I22" s="111"/>
-      <c r="J22" s="111"/>
-      <c r="K22" s="111"/>
-      <c r="L22" s="111"/>
-      <c r="M22" s="159"/>
-      <c r="N22" s="159"/>
-      <c r="O22" s="159"/>
-      <c r="P22" s="159"/>
-      <c r="Q22" s="159"/>
-      <c r="R22" s="111"/>
-    </row>
-    <row r="23" spans="1:18" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A23" s="117"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="130"/>
-      <c r="F23" s="130"/>
-      <c r="G23" s="130"/>
-      <c r="H23" s="130"/>
-      <c r="I23" s="130"/>
-      <c r="J23" s="130"/>
-      <c r="K23" s="130"/>
-      <c r="L23" s="130"/>
-      <c r="M23" s="162"/>
-      <c r="N23" s="162"/>
-      <c r="O23" s="162"/>
-      <c r="P23" s="162"/>
-      <c r="Q23" s="162"/>
-      <c r="R23" s="130"/>
-    </row>
-    <row r="24" spans="1:18" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A24" s="119" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="88" t="s">
-        <v>142</v>
-      </c>
-      <c r="C24" s="86"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="131" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" s="131"/>
-      <c r="G24" s="131"/>
-      <c r="H24" s="131" t="s">
-        <v>72</v>
-      </c>
-      <c r="I24" s="131"/>
-      <c r="J24" s="131"/>
-      <c r="K24" s="131"/>
-      <c r="L24" s="131"/>
-      <c r="M24" s="163"/>
-      <c r="N24" s="163"/>
-      <c r="O24" s="163"/>
-      <c r="P24" s="163"/>
-      <c r="Q24" s="163"/>
-      <c r="R24" s="131"/>
-    </row>
-    <row r="25" spans="1:18" ht="13.5" customHeight="1">
-      <c r="A25" s="118"/>
-      <c r="B25" s="88" t="s">
-        <v>143</v>
-      </c>
-      <c r="C25" s="89"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="111" t="s">
-        <v>72</v>
-      </c>
-      <c r="G25" s="111"/>
-      <c r="H25" s="111"/>
-      <c r="I25" s="111"/>
-      <c r="J25" s="111"/>
-      <c r="K25" s="111"/>
-      <c r="L25" s="111"/>
-      <c r="M25" s="159"/>
-      <c r="N25" s="159"/>
-      <c r="O25" s="159"/>
-      <c r="P25" s="159"/>
-      <c r="Q25" s="159"/>
-      <c r="R25" s="111"/>
-    </row>
-    <row r="26" spans="1:18" ht="13.5" customHeight="1">
-      <c r="A26" s="118"/>
-      <c r="B26" s="88" t="s">
-        <v>161</v>
-      </c>
-      <c r="C26" s="89"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="111" t="s">
-        <v>72</v>
-      </c>
-      <c r="H26" s="111"/>
-      <c r="I26" s="111"/>
-      <c r="J26" s="111"/>
-      <c r="K26" s="111"/>
-      <c r="L26" s="111"/>
-      <c r="M26" s="159"/>
-      <c r="N26" s="159"/>
-      <c r="O26" s="159"/>
-      <c r="P26" s="159"/>
-      <c r="Q26" s="159"/>
-      <c r="R26" s="111"/>
-    </row>
-    <row r="27" spans="1:18" ht="13.5" customHeight="1">
-      <c r="A27" s="118"/>
-      <c r="B27" s="88" t="s">
-        <v>160</v>
-      </c>
-      <c r="C27" s="89"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="111" t="s">
-        <v>72</v>
-      </c>
-      <c r="H27" s="111"/>
-      <c r="I27" s="111"/>
-      <c r="J27" s="111"/>
-      <c r="K27" s="111"/>
-      <c r="L27" s="111"/>
-      <c r="M27" s="159"/>
-      <c r="N27" s="159"/>
-      <c r="O27" s="159"/>
-      <c r="P27" s="159"/>
-      <c r="Q27" s="159"/>
-      <c r="R27" s="111"/>
-    </row>
-    <row r="28" spans="1:18" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A28" s="118"/>
-      <c r="B28" s="85"/>
-      <c r="C28" s="164"/>
-      <c r="D28" s="165"/>
-      <c r="E28" s="166"/>
-      <c r="F28" s="166"/>
-      <c r="G28" s="166"/>
-      <c r="H28" s="166"/>
-      <c r="I28" s="166"/>
-      <c r="J28" s="166"/>
-      <c r="K28" s="166"/>
-      <c r="L28" s="166"/>
-      <c r="M28" s="169"/>
-      <c r="N28" s="169"/>
-      <c r="O28" s="169"/>
-      <c r="P28" s="169"/>
-      <c r="Q28" s="169"/>
-      <c r="R28" s="170"/>
-    </row>
-    <row r="29" spans="1:18" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A29" s="119" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="247" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="248"/>
-      <c r="D29" s="249"/>
-      <c r="E29" s="171" t="s">
-        <v>40</v>
-      </c>
-      <c r="F29" s="171" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" s="171" t="s">
-        <v>38</v>
-      </c>
-      <c r="H29" s="171" t="s">
-        <v>40</v>
-      </c>
-      <c r="I29" s="171"/>
-      <c r="J29" s="171"/>
-      <c r="K29" s="171"/>
-      <c r="L29" s="171"/>
-      <c r="M29" s="171"/>
-      <c r="N29" s="171"/>
-      <c r="O29" s="171"/>
-      <c r="P29" s="171"/>
-      <c r="Q29" s="171"/>
-      <c r="R29" s="171"/>
-    </row>
-    <row r="30" spans="1:18" ht="13.5" customHeight="1">
-      <c r="A30" s="118"/>
-      <c r="B30" s="240" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="241"/>
-      <c r="D30" s="242"/>
-      <c r="E30" s="111" t="s">
-        <v>42</v>
-      </c>
-      <c r="F30" s="111" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" s="111" t="s">
-        <v>42</v>
-      </c>
-      <c r="H30" s="111" t="s">
-        <v>42</v>
-      </c>
-      <c r="I30" s="111"/>
-      <c r="J30" s="111"/>
-      <c r="K30" s="111"/>
-      <c r="L30" s="111"/>
-      <c r="M30" s="111"/>
-      <c r="N30" s="111"/>
-      <c r="O30" s="111"/>
-      <c r="P30" s="111"/>
-      <c r="Q30" s="111"/>
-      <c r="R30" s="111"/>
-    </row>
-    <row r="31" spans="1:18" ht="64.5" customHeight="1">
-      <c r="A31" s="118"/>
-      <c r="B31" s="225" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="226"/>
-      <c r="D31" s="227"/>
-      <c r="E31" s="91">
-        <v>42334</v>
-      </c>
-      <c r="F31" s="91">
-        <v>42334</v>
-      </c>
-      <c r="G31" s="91">
-        <v>42334</v>
-      </c>
-      <c r="H31" s="91">
-        <v>42334</v>
-      </c>
-      <c r="I31" s="91"/>
-      <c r="J31" s="91"/>
-      <c r="K31" s="91"/>
-      <c r="L31" s="91"/>
-      <c r="M31" s="91"/>
-      <c r="N31" s="91"/>
-      <c r="O31" s="91"/>
-      <c r="P31" s="91"/>
-      <c r="Q31" s="91"/>
-      <c r="R31" s="91"/>
-    </row>
-    <row r="32" spans="1:18" ht="13.5" customHeight="1">
-      <c r="A32" s="116"/>
-    </row>
-    <row r="49" s="76" customFormat="1" ht="24" customHeight="1"/>
-    <row r="50" s="76" customFormat="1" ht="39" customHeight="1"/>
-    <row r="62" s="76" customFormat="1" ht="57" customHeight="1"/>
-    <row r="63" s="76" customFormat="1" ht="10.5"/>
-    <row r="64" s="76" customFormat="1" ht="10.5"/>
-  </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I2:R2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:R3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:R4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:R5"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="L6:R6"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-  </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:G19 H13:H19 E20:H28 I13:R28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13:R28 H13:H19 E20:H28 E9:G19 H10">
       <formula1>"O, "</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E29:R29">
@@ -8031,8 +8063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -8052,136 +8084,136 @@
       <c r="B1" s="75"/>
     </row>
     <row r="2" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A2" s="201" t="s">
+      <c r="A2" s="223" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="203" t="s">
+      <c r="B2" s="224"/>
+      <c r="C2" s="225" t="s">
         <v>164</v>
       </c>
-      <c r="D2" s="204"/>
-      <c r="E2" s="219" t="s">
+      <c r="D2" s="226"/>
+      <c r="E2" s="241" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="209" t="str">
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
+      <c r="H2" s="243"/>
+      <c r="I2" s="231" t="str">
         <f>C2</f>
         <v>GetNumberNewMessage</v>
       </c>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="210"/>
-      <c r="P2" s="210"/>
-      <c r="Q2" s="210"/>
-      <c r="R2" s="211"/>
+      <c r="J2" s="232"/>
+      <c r="K2" s="232"/>
+      <c r="L2" s="232"/>
+      <c r="M2" s="232"/>
+      <c r="N2" s="232"/>
+      <c r="O2" s="232"/>
+      <c r="P2" s="232"/>
+      <c r="Q2" s="232"/>
+      <c r="R2" s="233"/>
       <c r="T2" s="78"/>
     </row>
     <row r="3" spans="1:20" ht="30" customHeight="1">
-      <c r="A3" s="207" t="s">
+      <c r="A3" s="229" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="208"/>
-      <c r="C3" s="215" t="str">
+      <c r="B3" s="230"/>
+      <c r="C3" s="237" t="str">
         <f>Cover!F4</f>
         <v>ManhLNSE02619</v>
       </c>
-      <c r="D3" s="216"/>
-      <c r="E3" s="222" t="s">
+      <c r="D3" s="238"/>
+      <c r="E3" s="244" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="223"/>
-      <c r="G3" s="223"/>
-      <c r="H3" s="224"/>
-      <c r="I3" s="212" t="str">
+      <c r="F3" s="245"/>
+      <c r="G3" s="245"/>
+      <c r="H3" s="246"/>
+      <c r="I3" s="234" t="str">
         <f>C3</f>
         <v>ManhLNSE02619</v>
       </c>
-      <c r="J3" s="213"/>
-      <c r="K3" s="213"/>
-      <c r="L3" s="213"/>
-      <c r="M3" s="213"/>
-      <c r="N3" s="213"/>
-      <c r="O3" s="213"/>
-      <c r="P3" s="213"/>
-      <c r="Q3" s="213"/>
-      <c r="R3" s="214"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="235"/>
+      <c r="M3" s="235"/>
+      <c r="N3" s="235"/>
+      <c r="O3" s="235"/>
+      <c r="P3" s="235"/>
+      <c r="Q3" s="235"/>
+      <c r="R3" s="236"/>
     </row>
     <row r="4" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A4" s="207" t="s">
+      <c r="A4" s="229" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="208"/>
-      <c r="C4" s="228"/>
-      <c r="D4" s="228"/>
-      <c r="E4" s="229"/>
-      <c r="F4" s="229"/>
-      <c r="G4" s="229"/>
-      <c r="H4" s="229"/>
-      <c r="I4" s="228"/>
-      <c r="J4" s="228"/>
-      <c r="K4" s="228"/>
-      <c r="L4" s="228"/>
-      <c r="M4" s="228"/>
-      <c r="N4" s="228"/>
-      <c r="O4" s="228"/>
-      <c r="P4" s="228"/>
-      <c r="Q4" s="228"/>
-      <c r="R4" s="230"/>
+      <c r="B4" s="230"/>
+      <c r="C4" s="204"/>
+      <c r="D4" s="204"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="204"/>
+      <c r="J4" s="204"/>
+      <c r="K4" s="204"/>
+      <c r="L4" s="204"/>
+      <c r="M4" s="204"/>
+      <c r="N4" s="204"/>
+      <c r="O4" s="204"/>
+      <c r="P4" s="204"/>
+      <c r="Q4" s="204"/>
+      <c r="R4" s="206"/>
     </row>
     <row r="5" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A5" s="217" t="s">
+      <c r="A5" s="239" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="218"/>
-      <c r="C5" s="246" t="s">
+      <c r="B5" s="240"/>
+      <c r="C5" s="222" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="232"/>
-      <c r="E5" s="231" t="s">
+      <c r="D5" s="208"/>
+      <c r="E5" s="207" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="232"/>
-      <c r="G5" s="232"/>
-      <c r="H5" s="243"/>
-      <c r="I5" s="232" t="s">
+      <c r="F5" s="208"/>
+      <c r="G5" s="208"/>
+      <c r="H5" s="219"/>
+      <c r="I5" s="208" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="232"/>
-      <c r="K5" s="232"/>
-      <c r="L5" s="231" t="s">
+      <c r="J5" s="208"/>
+      <c r="K5" s="208"/>
+      <c r="L5" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="232"/>
-      <c r="N5" s="232"/>
-      <c r="O5" s="232"/>
-      <c r="P5" s="232"/>
-      <c r="Q5" s="232"/>
-      <c r="R5" s="233"/>
+      <c r="M5" s="208"/>
+      <c r="N5" s="208"/>
+      <c r="O5" s="208"/>
+      <c r="P5" s="208"/>
+      <c r="Q5" s="208"/>
+      <c r="R5" s="209"/>
       <c r="T5" s="78"/>
     </row>
     <row r="6" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="205">
+      <c r="A6" s="227">
         <f>COUNTIF(E25:HM25,"P")</f>
         <v>4</v>
       </c>
-      <c r="B6" s="206"/>
-      <c r="C6" s="245">
+      <c r="B6" s="228"/>
+      <c r="C6" s="221">
         <f>COUNTIF(E25:HO25,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="235"/>
-      <c r="E6" s="234">
+      <c r="D6" s="211"/>
+      <c r="E6" s="210">
         <f>SUM(L6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="235"/>
-      <c r="G6" s="235"/>
-      <c r="H6" s="244"/>
+      <c r="F6" s="211"/>
+      <c r="G6" s="211"/>
+      <c r="H6" s="220"/>
       <c r="I6" s="154">
         <f>COUNTIF(E24:HM24,"N")</f>
         <v>1</v>
@@ -8194,16 +8226,16 @@
         <f>COUNTIF(E24:HO24,"B")</f>
         <v>0</v>
       </c>
-      <c r="L6" s="234">
+      <c r="L6" s="210">
         <f>COUNTA(E8:P8)</f>
         <v>4</v>
       </c>
-      <c r="M6" s="235"/>
-      <c r="N6" s="235"/>
-      <c r="O6" s="235"/>
-      <c r="P6" s="235"/>
-      <c r="Q6" s="235"/>
-      <c r="R6" s="236"/>
+      <c r="M6" s="211"/>
+      <c r="N6" s="211"/>
+      <c r="O6" s="211"/>
+      <c r="P6" s="211"/>
+      <c r="Q6" s="211"/>
+      <c r="R6" s="212"/>
       <c r="S6" s="155"/>
     </row>
     <row r="7" spans="1:20" ht="11.25" thickBot="1"/>
@@ -8246,7 +8278,9 @@
       <c r="C9" s="122"/>
       <c r="D9" s="123"/>
       <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
+      <c r="F9" s="111" t="s">
+        <v>72</v>
+      </c>
       <c r="G9" s="111"/>
       <c r="H9" s="129"/>
       <c r="I9" s="129"/>
@@ -8270,7 +8304,9 @@
       <c r="E10" s="131"/>
       <c r="F10" s="131"/>
       <c r="G10" s="131"/>
-      <c r="H10" s="129"/>
+      <c r="H10" s="131" t="s">
+        <v>72</v>
+      </c>
       <c r="I10" s="129"/>
       <c r="J10" s="129"/>
       <c r="K10" s="129"/>
@@ -8291,7 +8327,9 @@
       <c r="D11" s="123"/>
       <c r="E11" s="131"/>
       <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
+      <c r="G11" s="131" t="s">
+        <v>72</v>
+      </c>
       <c r="H11" s="129"/>
       <c r="I11" s="129"/>
       <c r="J11" s="129"/>
@@ -8312,7 +8350,9 @@
       <c r="C12" s="122"/>
       <c r="D12" s="123"/>
       <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
+      <c r="F12" s="131" t="s">
+        <v>72</v>
+      </c>
       <c r="G12" s="131"/>
       <c r="H12" s="129"/>
       <c r="I12" s="129"/>
@@ -8335,7 +8375,9 @@
       <c r="D13" s="123"/>
       <c r="E13" s="131"/>
       <c r="F13" s="131"/>
-      <c r="G13" s="131"/>
+      <c r="G13" s="131" t="s">
+        <v>72</v>
+      </c>
       <c r="H13" s="129"/>
       <c r="I13" s="129"/>
       <c r="J13" s="129"/>
@@ -8618,11 +8660,11 @@
     </row>
     <row r="25" spans="1:18" ht="13.5" customHeight="1">
       <c r="A25" s="118"/>
-      <c r="B25" s="240" t="s">
+      <c r="B25" s="216" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="241"/>
-      <c r="D25" s="242"/>
+      <c r="C25" s="217"/>
+      <c r="D25" s="218"/>
       <c r="E25" s="111" t="s">
         <v>42</v>
       </c>
@@ -8648,11 +8690,11 @@
     </row>
     <row r="26" spans="1:18" ht="64.5" customHeight="1">
       <c r="A26" s="118"/>
-      <c r="B26" s="225" t="s">
+      <c r="B26" s="201" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="226"/>
-      <c r="D26" s="227"/>
+      <c r="C26" s="202"/>
+      <c r="D26" s="203"/>
       <c r="E26" s="91">
         <v>42334</v>
       </c>
@@ -8701,6 +8743,20 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="L6:R6"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:R4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:R5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:H2"/>
@@ -8709,20 +8765,6 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I3:R3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:R4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:R5"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="L6:R6"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E25:R25">
@@ -8731,7 +8773,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E24:R24">
       <formula1>"N,A,B, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:G18 H14:H18 E19:H23 I14:R23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:G18 H14:H18 E19:H23 I14:R23 H10">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
@@ -10145,7 +10187,7 @@
   <dimension ref="A1:T60"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6:R6"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -10165,136 +10207,136 @@
       <c r="B1" s="75"/>
     </row>
     <row r="2" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A2" s="201" t="s">
+      <c r="A2" s="223" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="203" t="s">
+      <c r="B2" s="224"/>
+      <c r="C2" s="225" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="204"/>
-      <c r="E2" s="219" t="s">
+      <c r="D2" s="226"/>
+      <c r="E2" s="241" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="209" t="str">
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
+      <c r="H2" s="243"/>
+      <c r="I2" s="231" t="str">
         <f>C2</f>
         <v>CreateNewConversation</v>
       </c>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="210"/>
-      <c r="P2" s="210"/>
-      <c r="Q2" s="210"/>
-      <c r="R2" s="211"/>
+      <c r="J2" s="232"/>
+      <c r="K2" s="232"/>
+      <c r="L2" s="232"/>
+      <c r="M2" s="232"/>
+      <c r="N2" s="232"/>
+      <c r="O2" s="232"/>
+      <c r="P2" s="232"/>
+      <c r="Q2" s="232"/>
+      <c r="R2" s="233"/>
       <c r="T2" s="78"/>
     </row>
     <row r="3" spans="1:20" ht="30" customHeight="1">
-      <c r="A3" s="207" t="s">
+      <c r="A3" s="229" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="208"/>
-      <c r="C3" s="215" t="str">
+      <c r="B3" s="230"/>
+      <c r="C3" s="237" t="str">
         <f>Cover!F4</f>
         <v>ManhLNSE02619</v>
       </c>
-      <c r="D3" s="216"/>
-      <c r="E3" s="222" t="s">
+      <c r="D3" s="238"/>
+      <c r="E3" s="244" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="223"/>
-      <c r="G3" s="223"/>
-      <c r="H3" s="224"/>
-      <c r="I3" s="212" t="str">
+      <c r="F3" s="245"/>
+      <c r="G3" s="245"/>
+      <c r="H3" s="246"/>
+      <c r="I3" s="234" t="str">
         <f>C3</f>
         <v>ManhLNSE02619</v>
       </c>
-      <c r="J3" s="213"/>
-      <c r="K3" s="213"/>
-      <c r="L3" s="213"/>
-      <c r="M3" s="213"/>
-      <c r="N3" s="213"/>
-      <c r="O3" s="213"/>
-      <c r="P3" s="213"/>
-      <c r="Q3" s="213"/>
-      <c r="R3" s="214"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="235"/>
+      <c r="M3" s="235"/>
+      <c r="N3" s="235"/>
+      <c r="O3" s="235"/>
+      <c r="P3" s="235"/>
+      <c r="Q3" s="235"/>
+      <c r="R3" s="236"/>
     </row>
     <row r="4" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A4" s="207" t="s">
+      <c r="A4" s="229" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="208"/>
-      <c r="C4" s="228"/>
-      <c r="D4" s="228"/>
-      <c r="E4" s="229"/>
-      <c r="F4" s="229"/>
-      <c r="G4" s="229"/>
-      <c r="H4" s="229"/>
-      <c r="I4" s="228"/>
-      <c r="J4" s="228"/>
-      <c r="K4" s="228"/>
-      <c r="L4" s="228"/>
-      <c r="M4" s="228"/>
-      <c r="N4" s="228"/>
-      <c r="O4" s="228"/>
-      <c r="P4" s="228"/>
-      <c r="Q4" s="228"/>
-      <c r="R4" s="230"/>
+      <c r="B4" s="230"/>
+      <c r="C4" s="204"/>
+      <c r="D4" s="204"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="204"/>
+      <c r="J4" s="204"/>
+      <c r="K4" s="204"/>
+      <c r="L4" s="204"/>
+      <c r="M4" s="204"/>
+      <c r="N4" s="204"/>
+      <c r="O4" s="204"/>
+      <c r="P4" s="204"/>
+      <c r="Q4" s="204"/>
+      <c r="R4" s="206"/>
     </row>
     <row r="5" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A5" s="217" t="s">
+      <c r="A5" s="239" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="218"/>
-      <c r="C5" s="246" t="s">
+      <c r="B5" s="240"/>
+      <c r="C5" s="222" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="232"/>
-      <c r="E5" s="231" t="s">
+      <c r="D5" s="208"/>
+      <c r="E5" s="207" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="232"/>
-      <c r="G5" s="232"/>
-      <c r="H5" s="243"/>
-      <c r="I5" s="232" t="s">
+      <c r="F5" s="208"/>
+      <c r="G5" s="208"/>
+      <c r="H5" s="219"/>
+      <c r="I5" s="208" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="232"/>
-      <c r="K5" s="232"/>
-      <c r="L5" s="231" t="s">
+      <c r="J5" s="208"/>
+      <c r="K5" s="208"/>
+      <c r="L5" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="232"/>
-      <c r="N5" s="232"/>
-      <c r="O5" s="232"/>
-      <c r="P5" s="232"/>
-      <c r="Q5" s="232"/>
-      <c r="R5" s="233"/>
+      <c r="M5" s="208"/>
+      <c r="N5" s="208"/>
+      <c r="O5" s="208"/>
+      <c r="P5" s="208"/>
+      <c r="Q5" s="208"/>
+      <c r="R5" s="209"/>
       <c r="T5" s="78"/>
     </row>
     <row r="6" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="205">
+      <c r="A6" s="227">
         <f>COUNTIF(E26:HM26,"P")</f>
         <v>5</v>
       </c>
-      <c r="B6" s="206"/>
-      <c r="C6" s="245">
+      <c r="B6" s="228"/>
+      <c r="C6" s="221">
         <f>COUNTIF(E26:HO26,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="235"/>
-      <c r="E6" s="234">
+      <c r="D6" s="211"/>
+      <c r="E6" s="210">
         <f>SUM(L6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="235"/>
-      <c r="G6" s="235"/>
-      <c r="H6" s="244"/>
+      <c r="F6" s="211"/>
+      <c r="G6" s="211"/>
+      <c r="H6" s="220"/>
       <c r="I6" s="154">
         <f>COUNTIF(E25:HM25,"N")</f>
         <v>1</v>
@@ -10307,16 +10349,16 @@
         <f>COUNTIF(E25:HO25,"B")</f>
         <v>0</v>
       </c>
-      <c r="L6" s="234">
+      <c r="L6" s="210">
         <f>COUNTA(E8:R8)</f>
         <v>5</v>
       </c>
-      <c r="M6" s="235"/>
-      <c r="N6" s="235"/>
-      <c r="O6" s="235"/>
-      <c r="P6" s="235"/>
-      <c r="Q6" s="235"/>
-      <c r="R6" s="236"/>
+      <c r="M6" s="211"/>
+      <c r="N6" s="211"/>
+      <c r="O6" s="211"/>
+      <c r="P6" s="211"/>
+      <c r="Q6" s="211"/>
+      <c r="R6" s="212"/>
       <c r="S6" s="155"/>
     </row>
     <row r="7" spans="1:20" ht="11.25" thickBot="1"/>
@@ -10362,9 +10404,15 @@
       <c r="D9" s="123"/>
       <c r="E9" s="131"/>
       <c r="F9" s="111"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
+      <c r="G9" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="131" t="s">
+        <v>72</v>
+      </c>
       <c r="J9" s="131"/>
       <c r="K9" s="129"/>
       <c r="L9" s="129"/>
@@ -10383,7 +10431,9 @@
       <c r="C10" s="122"/>
       <c r="D10" s="123"/>
       <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
+      <c r="F10" s="131" t="s">
+        <v>72</v>
+      </c>
       <c r="G10" s="131"/>
       <c r="H10" s="131"/>
       <c r="I10" s="131"/>
@@ -10406,7 +10456,9 @@
       <c r="D11" s="123"/>
       <c r="E11" s="131"/>
       <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
+      <c r="G11" s="131" t="s">
+        <v>72</v>
+      </c>
       <c r="H11" s="131"/>
       <c r="I11" s="131"/>
       <c r="J11" s="131"/>
@@ -10429,7 +10481,9 @@
       <c r="E12" s="131"/>
       <c r="F12" s="131"/>
       <c r="G12" s="131"/>
-      <c r="H12" s="131"/>
+      <c r="H12" s="131" t="s">
+        <v>72</v>
+      </c>
       <c r="I12" s="131"/>
       <c r="J12" s="131"/>
       <c r="K12" s="129"/>
@@ -10745,11 +10799,11 @@
       <c r="A25" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="237" t="s">
+      <c r="B25" s="213" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="238"/>
-      <c r="D25" s="239"/>
+      <c r="C25" s="214"/>
+      <c r="D25" s="215"/>
       <c r="E25" s="171" t="s">
         <v>40</v>
       </c>
@@ -10777,11 +10831,11 @@
     </row>
     <row r="26" spans="1:18" ht="13.5" customHeight="1">
       <c r="A26" s="118"/>
-      <c r="B26" s="240" t="s">
+      <c r="B26" s="216" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="241"/>
-      <c r="D26" s="242"/>
+      <c r="C26" s="217"/>
+      <c r="D26" s="218"/>
       <c r="E26" s="111" t="s">
         <v>42</v>
       </c>
@@ -10809,11 +10863,11 @@
     </row>
     <row r="27" spans="1:18" ht="64.5" customHeight="1">
       <c r="A27" s="118"/>
-      <c r="B27" s="225" t="s">
+      <c r="B27" s="201" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="226"/>
-      <c r="D27" s="227"/>
+      <c r="C27" s="202"/>
+      <c r="D27" s="203"/>
       <c r="E27" s="91">
         <v>42334</v>
       </c>
@@ -10849,6 +10903,17 @@
     <row r="60" ht="10.5"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="I2:R2"/>
+    <mergeCell ref="I3:R3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="C4:R4"/>
     <mergeCell ref="L5:R5"/>
@@ -10860,17 +10925,6 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="I2:R2"/>
-    <mergeCell ref="I3:R3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <dataValidations count="3">
@@ -10880,7 +10934,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E26:R26">
       <formula1>"P,F, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:G12 H12 I9:I10 E13:R24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:G12 H12 I9:I10 E13:R24 H9">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
@@ -10897,8 +10951,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -10918,136 +10972,136 @@
       <c r="B1" s="75"/>
     </row>
     <row r="2" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A2" s="201" t="s">
+      <c r="A2" s="223" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="203" t="s">
+      <c r="B2" s="224"/>
+      <c r="C2" s="225" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="204"/>
-      <c r="E2" s="219" t="s">
+      <c r="D2" s="226"/>
+      <c r="E2" s="241" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="209" t="str">
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
+      <c r="H2" s="243"/>
+      <c r="I2" s="231" t="str">
         <f>C2</f>
         <v>GetListConversation</v>
       </c>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="210"/>
-      <c r="P2" s="210"/>
-      <c r="Q2" s="210"/>
-      <c r="R2" s="211"/>
+      <c r="J2" s="232"/>
+      <c r="K2" s="232"/>
+      <c r="L2" s="232"/>
+      <c r="M2" s="232"/>
+      <c r="N2" s="232"/>
+      <c r="O2" s="232"/>
+      <c r="P2" s="232"/>
+      <c r="Q2" s="232"/>
+      <c r="R2" s="233"/>
       <c r="T2" s="78"/>
     </row>
     <row r="3" spans="1:20" ht="30" customHeight="1">
-      <c r="A3" s="207" t="s">
+      <c r="A3" s="229" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="208"/>
-      <c r="C3" s="215" t="str">
+      <c r="B3" s="230"/>
+      <c r="C3" s="237" t="str">
         <f>Cover!F4</f>
         <v>ManhLNSE02619</v>
       </c>
-      <c r="D3" s="216"/>
-      <c r="E3" s="222" t="s">
+      <c r="D3" s="238"/>
+      <c r="E3" s="244" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="223"/>
-      <c r="G3" s="223"/>
-      <c r="H3" s="224"/>
-      <c r="I3" s="212" t="str">
+      <c r="F3" s="245"/>
+      <c r="G3" s="245"/>
+      <c r="H3" s="246"/>
+      <c r="I3" s="234" t="str">
         <f>C3</f>
         <v>ManhLNSE02619</v>
       </c>
-      <c r="J3" s="213"/>
-      <c r="K3" s="213"/>
-      <c r="L3" s="213"/>
-      <c r="M3" s="213"/>
-      <c r="N3" s="213"/>
-      <c r="O3" s="213"/>
-      <c r="P3" s="213"/>
-      <c r="Q3" s="213"/>
-      <c r="R3" s="214"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="235"/>
+      <c r="M3" s="235"/>
+      <c r="N3" s="235"/>
+      <c r="O3" s="235"/>
+      <c r="P3" s="235"/>
+      <c r="Q3" s="235"/>
+      <c r="R3" s="236"/>
     </row>
     <row r="4" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A4" s="207" t="s">
+      <c r="A4" s="229" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="208"/>
-      <c r="C4" s="228"/>
-      <c r="D4" s="228"/>
-      <c r="E4" s="229"/>
-      <c r="F4" s="229"/>
-      <c r="G4" s="229"/>
-      <c r="H4" s="229"/>
-      <c r="I4" s="228"/>
-      <c r="J4" s="228"/>
-      <c r="K4" s="228"/>
-      <c r="L4" s="228"/>
-      <c r="M4" s="228"/>
-      <c r="N4" s="228"/>
-      <c r="O4" s="228"/>
-      <c r="P4" s="228"/>
-      <c r="Q4" s="228"/>
-      <c r="R4" s="230"/>
+      <c r="B4" s="230"/>
+      <c r="C4" s="204"/>
+      <c r="D4" s="204"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="204"/>
+      <c r="J4" s="204"/>
+      <c r="K4" s="204"/>
+      <c r="L4" s="204"/>
+      <c r="M4" s="204"/>
+      <c r="N4" s="204"/>
+      <c r="O4" s="204"/>
+      <c r="P4" s="204"/>
+      <c r="Q4" s="204"/>
+      <c r="R4" s="206"/>
     </row>
     <row r="5" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A5" s="217" t="s">
+      <c r="A5" s="239" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="218"/>
-      <c r="C5" s="246" t="s">
+      <c r="B5" s="240"/>
+      <c r="C5" s="222" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="232"/>
-      <c r="E5" s="231" t="s">
+      <c r="D5" s="208"/>
+      <c r="E5" s="207" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="232"/>
-      <c r="G5" s="232"/>
-      <c r="H5" s="243"/>
-      <c r="I5" s="232" t="s">
+      <c r="F5" s="208"/>
+      <c r="G5" s="208"/>
+      <c r="H5" s="219"/>
+      <c r="I5" s="208" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="232"/>
-      <c r="K5" s="232"/>
-      <c r="L5" s="231" t="s">
+      <c r="J5" s="208"/>
+      <c r="K5" s="208"/>
+      <c r="L5" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="232"/>
-      <c r="N5" s="232"/>
-      <c r="O5" s="232"/>
-      <c r="P5" s="232"/>
-      <c r="Q5" s="232"/>
-      <c r="R5" s="233"/>
+      <c r="M5" s="208"/>
+      <c r="N5" s="208"/>
+      <c r="O5" s="208"/>
+      <c r="P5" s="208"/>
+      <c r="Q5" s="208"/>
+      <c r="R5" s="209"/>
       <c r="T5" s="78"/>
     </row>
     <row r="6" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="205">
+      <c r="A6" s="227">
         <f>COUNTIF(E21:HM21,"P")</f>
         <v>3</v>
       </c>
-      <c r="B6" s="206"/>
-      <c r="C6" s="245">
+      <c r="B6" s="228"/>
+      <c r="C6" s="221">
         <f>COUNTIF(E21:HO21,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="235"/>
-      <c r="E6" s="234">
+      <c r="D6" s="211"/>
+      <c r="E6" s="210">
         <f>SUM(L6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="235"/>
-      <c r="G6" s="235"/>
-      <c r="H6" s="244"/>
+      <c r="F6" s="211"/>
+      <c r="G6" s="211"/>
+      <c r="H6" s="220"/>
       <c r="I6" s="154">
         <f>COUNTIF(E20:HM20,"N")</f>
         <v>1</v>
@@ -11060,16 +11114,16 @@
         <f>COUNTIF(E20:HO20,"B")</f>
         <v>0</v>
       </c>
-      <c r="L6" s="234">
+      <c r="L6" s="210">
         <f>COUNTA(E8:P8)</f>
         <v>3</v>
       </c>
-      <c r="M6" s="235"/>
-      <c r="N6" s="235"/>
-      <c r="O6" s="235"/>
-      <c r="P6" s="235"/>
-      <c r="Q6" s="235"/>
-      <c r="R6" s="236"/>
+      <c r="M6" s="211"/>
+      <c r="N6" s="211"/>
+      <c r="O6" s="211"/>
+      <c r="P6" s="211"/>
+      <c r="Q6" s="211"/>
+      <c r="R6" s="212"/>
       <c r="S6" s="155"/>
     </row>
     <row r="7" spans="1:20" ht="11.25" thickBot="1"/>
@@ -11110,7 +11164,9 @@
       <c r="C9" s="122"/>
       <c r="D9" s="123"/>
       <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
+      <c r="F9" s="111" t="s">
+        <v>72</v>
+      </c>
       <c r="G9" s="111"/>
       <c r="H9" s="129"/>
       <c r="I9" s="129"/>
@@ -11133,7 +11189,9 @@
       <c r="D10" s="123"/>
       <c r="E10" s="131"/>
       <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
+      <c r="G10" s="131" t="s">
+        <v>72</v>
+      </c>
       <c r="H10" s="129"/>
       <c r="I10" s="129"/>
       <c r="J10" s="129"/>
@@ -11153,15 +11211,11 @@
       </c>
       <c r="C11" s="122"/>
       <c r="D11" s="123"/>
-      <c r="E11" s="131" t="s">
-        <v>72</v>
-      </c>
+      <c r="E11" s="131"/>
       <c r="F11" s="131" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="131" t="s">
-        <v>72</v>
-      </c>
+      <c r="G11" s="131"/>
       <c r="H11" s="129"/>
       <c r="I11" s="129"/>
       <c r="J11" s="129"/>
@@ -11394,11 +11448,11 @@
     </row>
     <row r="21" spans="1:18" ht="13.5" customHeight="1">
       <c r="A21" s="118"/>
-      <c r="B21" s="240" t="s">
+      <c r="B21" s="216" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="241"/>
-      <c r="D21" s="242"/>
+      <c r="C21" s="217"/>
+      <c r="D21" s="218"/>
       <c r="E21" s="111" t="s">
         <v>42</v>
       </c>
@@ -11422,11 +11476,11 @@
     </row>
     <row r="22" spans="1:18" ht="64.5" customHeight="1">
       <c r="A22" s="118"/>
-      <c r="B22" s="225" t="s">
+      <c r="B22" s="201" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="226"/>
-      <c r="D22" s="227"/>
+      <c r="C22" s="202"/>
+      <c r="D22" s="203"/>
       <c r="E22" s="91">
         <v>42334</v>
       </c>
@@ -11458,6 +11512,21 @@
     <row r="55" ht="10.5"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:R2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:R3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:R4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:R5"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
@@ -11467,21 +11536,6 @@
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:R4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:R5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I2:R2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:R3"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:G11 E12:R19">
@@ -11507,7 +11561,9 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
   <cols>
@@ -11526,136 +11582,136 @@
       <c r="B1" s="75"/>
     </row>
     <row r="2" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A2" s="201" t="s">
+      <c r="A2" s="223" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="203" t="s">
+      <c r="B2" s="224"/>
+      <c r="C2" s="225" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="204"/>
-      <c r="E2" s="219" t="s">
+      <c r="D2" s="226"/>
+      <c r="E2" s="241" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="209" t="str">
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
+      <c r="H2" s="243"/>
+      <c r="I2" s="231" t="str">
         <f>C2</f>
         <v>GetListSentConversation</v>
       </c>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="210"/>
-      <c r="P2" s="210"/>
-      <c r="Q2" s="210"/>
-      <c r="R2" s="211"/>
+      <c r="J2" s="232"/>
+      <c r="K2" s="232"/>
+      <c r="L2" s="232"/>
+      <c r="M2" s="232"/>
+      <c r="N2" s="232"/>
+      <c r="O2" s="232"/>
+      <c r="P2" s="232"/>
+      <c r="Q2" s="232"/>
+      <c r="R2" s="233"/>
       <c r="T2" s="78"/>
     </row>
     <row r="3" spans="1:20" ht="30" customHeight="1">
-      <c r="A3" s="207" t="s">
+      <c r="A3" s="229" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="208"/>
-      <c r="C3" s="215" t="str">
+      <c r="B3" s="230"/>
+      <c r="C3" s="237" t="str">
         <f>Cover!F4</f>
         <v>ManhLNSE02619</v>
       </c>
-      <c r="D3" s="216"/>
-      <c r="E3" s="222" t="s">
+      <c r="D3" s="238"/>
+      <c r="E3" s="244" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="223"/>
-      <c r="G3" s="223"/>
-      <c r="H3" s="224"/>
-      <c r="I3" s="212" t="str">
+      <c r="F3" s="245"/>
+      <c r="G3" s="245"/>
+      <c r="H3" s="246"/>
+      <c r="I3" s="234" t="str">
         <f>C3</f>
         <v>ManhLNSE02619</v>
       </c>
-      <c r="J3" s="213"/>
-      <c r="K3" s="213"/>
-      <c r="L3" s="213"/>
-      <c r="M3" s="213"/>
-      <c r="N3" s="213"/>
-      <c r="O3" s="213"/>
-      <c r="P3" s="213"/>
-      <c r="Q3" s="213"/>
-      <c r="R3" s="214"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="235"/>
+      <c r="M3" s="235"/>
+      <c r="N3" s="235"/>
+      <c r="O3" s="235"/>
+      <c r="P3" s="235"/>
+      <c r="Q3" s="235"/>
+      <c r="R3" s="236"/>
     </row>
     <row r="4" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A4" s="207" t="s">
+      <c r="A4" s="229" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="208"/>
-      <c r="C4" s="228"/>
-      <c r="D4" s="228"/>
-      <c r="E4" s="229"/>
-      <c r="F4" s="229"/>
-      <c r="G4" s="229"/>
-      <c r="H4" s="229"/>
-      <c r="I4" s="228"/>
-      <c r="J4" s="228"/>
-      <c r="K4" s="228"/>
-      <c r="L4" s="228"/>
-      <c r="M4" s="228"/>
-      <c r="N4" s="228"/>
-      <c r="O4" s="228"/>
-      <c r="P4" s="228"/>
-      <c r="Q4" s="228"/>
-      <c r="R4" s="230"/>
+      <c r="B4" s="230"/>
+      <c r="C4" s="204"/>
+      <c r="D4" s="204"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="204"/>
+      <c r="J4" s="204"/>
+      <c r="K4" s="204"/>
+      <c r="L4" s="204"/>
+      <c r="M4" s="204"/>
+      <c r="N4" s="204"/>
+      <c r="O4" s="204"/>
+      <c r="P4" s="204"/>
+      <c r="Q4" s="204"/>
+      <c r="R4" s="206"/>
     </row>
     <row r="5" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A5" s="217" t="s">
+      <c r="A5" s="239" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="218"/>
-      <c r="C5" s="246" t="s">
+      <c r="B5" s="240"/>
+      <c r="C5" s="222" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="232"/>
-      <c r="E5" s="231" t="s">
+      <c r="D5" s="208"/>
+      <c r="E5" s="207" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="232"/>
-      <c r="G5" s="232"/>
-      <c r="H5" s="243"/>
-      <c r="I5" s="232" t="s">
+      <c r="F5" s="208"/>
+      <c r="G5" s="208"/>
+      <c r="H5" s="219"/>
+      <c r="I5" s="208" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="232"/>
-      <c r="K5" s="232"/>
-      <c r="L5" s="231" t="s">
+      <c r="J5" s="208"/>
+      <c r="K5" s="208"/>
+      <c r="L5" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="232"/>
-      <c r="N5" s="232"/>
-      <c r="O5" s="232"/>
-      <c r="P5" s="232"/>
-      <c r="Q5" s="232"/>
-      <c r="R5" s="233"/>
+      <c r="M5" s="208"/>
+      <c r="N5" s="208"/>
+      <c r="O5" s="208"/>
+      <c r="P5" s="208"/>
+      <c r="Q5" s="208"/>
+      <c r="R5" s="209"/>
       <c r="T5" s="78"/>
     </row>
     <row r="6" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="205">
+      <c r="A6" s="227">
         <f>COUNTIF(E21:HM21,"P")</f>
         <v>3</v>
       </c>
-      <c r="B6" s="206"/>
-      <c r="C6" s="245">
+      <c r="B6" s="228"/>
+      <c r="C6" s="221">
         <f>COUNTIF(E21:HO21,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="235"/>
-      <c r="E6" s="234">
+      <c r="D6" s="211"/>
+      <c r="E6" s="210">
         <f>SUM(L6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="235"/>
-      <c r="G6" s="235"/>
-      <c r="H6" s="244"/>
+      <c r="F6" s="211"/>
+      <c r="G6" s="211"/>
+      <c r="H6" s="220"/>
       <c r="I6" s="154">
         <f>COUNTIF(E20:HM20,"N")</f>
         <v>1</v>
@@ -11668,16 +11724,16 @@
         <f>COUNTIF(E20:HO20,"B")</f>
         <v>0</v>
       </c>
-      <c r="L6" s="234">
+      <c r="L6" s="210">
         <f>COUNTA(E8:P8)</f>
         <v>3</v>
       </c>
-      <c r="M6" s="235"/>
-      <c r="N6" s="235"/>
-      <c r="O6" s="235"/>
-      <c r="P6" s="235"/>
-      <c r="Q6" s="235"/>
-      <c r="R6" s="236"/>
+      <c r="M6" s="211"/>
+      <c r="N6" s="211"/>
+      <c r="O6" s="211"/>
+      <c r="P6" s="211"/>
+      <c r="Q6" s="211"/>
+      <c r="R6" s="212"/>
       <c r="S6" s="155"/>
     </row>
     <row r="7" spans="1:20" ht="11.25" thickBot="1"/>
@@ -11718,7 +11774,9 @@
       <c r="C9" s="122"/>
       <c r="D9" s="123"/>
       <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
+      <c r="F9" s="111" t="s">
+        <v>72</v>
+      </c>
       <c r="G9" s="111"/>
       <c r="H9" s="129"/>
       <c r="I9" s="129"/>
@@ -11741,7 +11799,9 @@
       <c r="D10" s="123"/>
       <c r="E10" s="131"/>
       <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
+      <c r="G10" s="131" t="s">
+        <v>72</v>
+      </c>
       <c r="H10" s="129"/>
       <c r="I10" s="129"/>
       <c r="J10" s="129"/>
@@ -11761,15 +11821,11 @@
       </c>
       <c r="C11" s="122"/>
       <c r="D11" s="123"/>
-      <c r="E11" s="131" t="s">
-        <v>72</v>
-      </c>
+      <c r="E11" s="131"/>
       <c r="F11" s="131" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="131" t="s">
-        <v>72</v>
-      </c>
+      <c r="G11" s="131"/>
       <c r="H11" s="129"/>
       <c r="I11" s="129"/>
       <c r="J11" s="129"/>
@@ -12002,11 +12058,11 @@
     </row>
     <row r="21" spans="1:18" ht="13.5" customHeight="1">
       <c r="A21" s="118"/>
-      <c r="B21" s="240" t="s">
+      <c r="B21" s="216" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="241"/>
-      <c r="D21" s="242"/>
+      <c r="C21" s="217"/>
+      <c r="D21" s="218"/>
       <c r="E21" s="111" t="s">
         <v>42</v>
       </c>
@@ -12030,11 +12086,11 @@
     </row>
     <row r="22" spans="1:18" ht="64.5" customHeight="1">
       <c r="A22" s="118"/>
-      <c r="B22" s="225" t="s">
+      <c r="B22" s="201" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="226"/>
-      <c r="D22" s="227"/>
+      <c r="C22" s="202"/>
+      <c r="D22" s="203"/>
       <c r="E22" s="91">
         <v>42334</v>
       </c>
@@ -12066,6 +12122,21 @@
     <row r="55" ht="10.5"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:R2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:R3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:R4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:R5"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
@@ -12074,21 +12145,6 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:R4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:R5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I2:R2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:R3"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12:R19 E9:G11">
@@ -12115,7 +12171,7 @@
   <dimension ref="A1:T55"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -12135,136 +12191,136 @@
       <c r="B1" s="75"/>
     </row>
     <row r="2" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A2" s="201" t="s">
+      <c r="A2" s="223" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="203" t="s">
+      <c r="B2" s="224"/>
+      <c r="C2" s="225" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="204"/>
-      <c r="E2" s="219" t="s">
+      <c r="D2" s="226"/>
+      <c r="E2" s="241" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="209" t="str">
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
+      <c r="H2" s="243"/>
+      <c r="I2" s="231" t="str">
         <f>C2</f>
         <v>GetListReceivedConversation</v>
       </c>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="210"/>
-      <c r="P2" s="210"/>
-      <c r="Q2" s="210"/>
-      <c r="R2" s="211"/>
+      <c r="J2" s="232"/>
+      <c r="K2" s="232"/>
+      <c r="L2" s="232"/>
+      <c r="M2" s="232"/>
+      <c r="N2" s="232"/>
+      <c r="O2" s="232"/>
+      <c r="P2" s="232"/>
+      <c r="Q2" s="232"/>
+      <c r="R2" s="233"/>
       <c r="T2" s="78"/>
     </row>
     <row r="3" spans="1:20" ht="30" customHeight="1">
-      <c r="A3" s="207" t="s">
+      <c r="A3" s="229" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="208"/>
-      <c r="C3" s="215" t="str">
+      <c r="B3" s="230"/>
+      <c r="C3" s="237" t="str">
         <f>Cover!F4</f>
         <v>ManhLNSE02619</v>
       </c>
-      <c r="D3" s="216"/>
-      <c r="E3" s="222" t="s">
+      <c r="D3" s="238"/>
+      <c r="E3" s="244" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="223"/>
-      <c r="G3" s="223"/>
-      <c r="H3" s="224"/>
-      <c r="I3" s="212" t="str">
+      <c r="F3" s="245"/>
+      <c r="G3" s="245"/>
+      <c r="H3" s="246"/>
+      <c r="I3" s="234" t="str">
         <f>C3</f>
         <v>ManhLNSE02619</v>
       </c>
-      <c r="J3" s="213"/>
-      <c r="K3" s="213"/>
-      <c r="L3" s="213"/>
-      <c r="M3" s="213"/>
-      <c r="N3" s="213"/>
-      <c r="O3" s="213"/>
-      <c r="P3" s="213"/>
-      <c r="Q3" s="213"/>
-      <c r="R3" s="214"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="235"/>
+      <c r="M3" s="235"/>
+      <c r="N3" s="235"/>
+      <c r="O3" s="235"/>
+      <c r="P3" s="235"/>
+      <c r="Q3" s="235"/>
+      <c r="R3" s="236"/>
     </row>
     <row r="4" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A4" s="207" t="s">
+      <c r="A4" s="229" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="208"/>
-      <c r="C4" s="228"/>
-      <c r="D4" s="228"/>
-      <c r="E4" s="229"/>
-      <c r="F4" s="229"/>
-      <c r="G4" s="229"/>
-      <c r="H4" s="229"/>
-      <c r="I4" s="228"/>
-      <c r="J4" s="228"/>
-      <c r="K4" s="228"/>
-      <c r="L4" s="228"/>
-      <c r="M4" s="228"/>
-      <c r="N4" s="228"/>
-      <c r="O4" s="228"/>
-      <c r="P4" s="228"/>
-      <c r="Q4" s="228"/>
-      <c r="R4" s="230"/>
+      <c r="B4" s="230"/>
+      <c r="C4" s="204"/>
+      <c r="D4" s="204"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="204"/>
+      <c r="J4" s="204"/>
+      <c r="K4" s="204"/>
+      <c r="L4" s="204"/>
+      <c r="M4" s="204"/>
+      <c r="N4" s="204"/>
+      <c r="O4" s="204"/>
+      <c r="P4" s="204"/>
+      <c r="Q4" s="204"/>
+      <c r="R4" s="206"/>
     </row>
     <row r="5" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A5" s="217" t="s">
+      <c r="A5" s="239" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="218"/>
-      <c r="C5" s="246" t="s">
+      <c r="B5" s="240"/>
+      <c r="C5" s="222" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="232"/>
-      <c r="E5" s="231" t="s">
+      <c r="D5" s="208"/>
+      <c r="E5" s="207" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="232"/>
-      <c r="G5" s="232"/>
-      <c r="H5" s="243"/>
-      <c r="I5" s="232" t="s">
+      <c r="F5" s="208"/>
+      <c r="G5" s="208"/>
+      <c r="H5" s="219"/>
+      <c r="I5" s="208" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="232"/>
-      <c r="K5" s="232"/>
-      <c r="L5" s="231" t="s">
+      <c r="J5" s="208"/>
+      <c r="K5" s="208"/>
+      <c r="L5" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="232"/>
-      <c r="N5" s="232"/>
-      <c r="O5" s="232"/>
-      <c r="P5" s="232"/>
-      <c r="Q5" s="232"/>
-      <c r="R5" s="233"/>
+      <c r="M5" s="208"/>
+      <c r="N5" s="208"/>
+      <c r="O5" s="208"/>
+      <c r="P5" s="208"/>
+      <c r="Q5" s="208"/>
+      <c r="R5" s="209"/>
       <c r="T5" s="78"/>
     </row>
     <row r="6" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="205">
+      <c r="A6" s="227">
         <f>COUNTIF(E21:HM21,"P")</f>
         <v>3</v>
       </c>
-      <c r="B6" s="206"/>
-      <c r="C6" s="245">
+      <c r="B6" s="228"/>
+      <c r="C6" s="221">
         <f>COUNTIF(E21:HO21,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="235"/>
-      <c r="E6" s="234">
+      <c r="D6" s="211"/>
+      <c r="E6" s="210">
         <f>SUM(L6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="235"/>
-      <c r="G6" s="235"/>
-      <c r="H6" s="244"/>
+      <c r="F6" s="211"/>
+      <c r="G6" s="211"/>
+      <c r="H6" s="220"/>
       <c r="I6" s="154">
         <f>COUNTIF(E20:HM20,"N")</f>
         <v>1</v>
@@ -12277,16 +12333,16 @@
         <f>COUNTIF(E20:HO20,"B")</f>
         <v>0</v>
       </c>
-      <c r="L6" s="234">
+      <c r="L6" s="210">
         <f>COUNTA(E8:P8)</f>
         <v>3</v>
       </c>
-      <c r="M6" s="235"/>
-      <c r="N6" s="235"/>
-      <c r="O6" s="235"/>
-      <c r="P6" s="235"/>
-      <c r="Q6" s="235"/>
-      <c r="R6" s="236"/>
+      <c r="M6" s="211"/>
+      <c r="N6" s="211"/>
+      <c r="O6" s="211"/>
+      <c r="P6" s="211"/>
+      <c r="Q6" s="211"/>
+      <c r="R6" s="212"/>
       <c r="S6" s="155"/>
     </row>
     <row r="7" spans="1:20" ht="11.25" thickBot="1"/>
@@ -12327,7 +12383,9 @@
       <c r="C9" s="122"/>
       <c r="D9" s="123"/>
       <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
+      <c r="F9" s="111" t="s">
+        <v>72</v>
+      </c>
       <c r="G9" s="111"/>
       <c r="H9" s="129"/>
       <c r="I9" s="129"/>
@@ -12350,7 +12408,9 @@
       <c r="D10" s="123"/>
       <c r="E10" s="131"/>
       <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
+      <c r="G10" s="131" t="s">
+        <v>72</v>
+      </c>
       <c r="H10" s="129"/>
       <c r="I10" s="129"/>
       <c r="J10" s="129"/>
@@ -12370,15 +12430,11 @@
       </c>
       <c r="C11" s="122"/>
       <c r="D11" s="123"/>
-      <c r="E11" s="131" t="s">
-        <v>72</v>
-      </c>
+      <c r="E11" s="131"/>
       <c r="F11" s="131" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="131" t="s">
-        <v>72</v>
-      </c>
+      <c r="G11" s="131"/>
       <c r="H11" s="129"/>
       <c r="I11" s="129"/>
       <c r="J11" s="129"/>
@@ -12611,11 +12667,11 @@
     </row>
     <row r="21" spans="1:18" ht="13.5" customHeight="1">
       <c r="A21" s="118"/>
-      <c r="B21" s="240" t="s">
+      <c r="B21" s="216" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="241"/>
-      <c r="D21" s="242"/>
+      <c r="C21" s="217"/>
+      <c r="D21" s="218"/>
       <c r="E21" s="111" t="s">
         <v>42</v>
       </c>
@@ -12639,11 +12695,11 @@
     </row>
     <row r="22" spans="1:18" ht="64.5" customHeight="1">
       <c r="A22" s="118"/>
-      <c r="B22" s="225" t="s">
+      <c r="B22" s="201" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="226"/>
-      <c r="D22" s="227"/>
+      <c r="C22" s="202"/>
+      <c r="D22" s="203"/>
       <c r="E22" s="91">
         <v>42334</v>
       </c>
@@ -12675,6 +12731,21 @@
     <row r="55" ht="10.5"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:R2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:R3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:R4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:R5"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
@@ -12683,21 +12754,6 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:R4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:R5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I2:R2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:R3"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21:R21">
@@ -12723,8 +12779,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:D6"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -12744,136 +12800,136 @@
       <c r="B1" s="75"/>
     </row>
     <row r="2" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A2" s="201" t="s">
+      <c r="A2" s="223" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="203" t="s">
+      <c r="B2" s="224"/>
+      <c r="C2" s="225" t="s">
         <v>138</v>
       </c>
-      <c r="D2" s="204"/>
-      <c r="E2" s="219" t="s">
+      <c r="D2" s="226"/>
+      <c r="E2" s="241" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="209" t="str">
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
+      <c r="H2" s="243"/>
+      <c r="I2" s="231" t="str">
         <f>C2</f>
         <v>GetConveration</v>
       </c>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="210"/>
-      <c r="P2" s="210"/>
-      <c r="Q2" s="210"/>
-      <c r="R2" s="211"/>
+      <c r="J2" s="232"/>
+      <c r="K2" s="232"/>
+      <c r="L2" s="232"/>
+      <c r="M2" s="232"/>
+      <c r="N2" s="232"/>
+      <c r="O2" s="232"/>
+      <c r="P2" s="232"/>
+      <c r="Q2" s="232"/>
+      <c r="R2" s="233"/>
       <c r="T2" s="78"/>
     </row>
     <row r="3" spans="1:20" ht="30" customHeight="1">
-      <c r="A3" s="207" t="s">
+      <c r="A3" s="229" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="208"/>
-      <c r="C3" s="215" t="str">
+      <c r="B3" s="230"/>
+      <c r="C3" s="237" t="str">
         <f>Cover!F4</f>
         <v>ManhLNSE02619</v>
       </c>
-      <c r="D3" s="216"/>
-      <c r="E3" s="222" t="s">
+      <c r="D3" s="238"/>
+      <c r="E3" s="244" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="223"/>
-      <c r="G3" s="223"/>
-      <c r="H3" s="224"/>
-      <c r="I3" s="212" t="str">
+      <c r="F3" s="245"/>
+      <c r="G3" s="245"/>
+      <c r="H3" s="246"/>
+      <c r="I3" s="234" t="str">
         <f>C3</f>
         <v>ManhLNSE02619</v>
       </c>
-      <c r="J3" s="213"/>
-      <c r="K3" s="213"/>
-      <c r="L3" s="213"/>
-      <c r="M3" s="213"/>
-      <c r="N3" s="213"/>
-      <c r="O3" s="213"/>
-      <c r="P3" s="213"/>
-      <c r="Q3" s="213"/>
-      <c r="R3" s="214"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="235"/>
+      <c r="M3" s="235"/>
+      <c r="N3" s="235"/>
+      <c r="O3" s="235"/>
+      <c r="P3" s="235"/>
+      <c r="Q3" s="235"/>
+      <c r="R3" s="236"/>
     </row>
     <row r="4" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A4" s="207" t="s">
+      <c r="A4" s="229" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="208"/>
-      <c r="C4" s="228"/>
-      <c r="D4" s="228"/>
-      <c r="E4" s="229"/>
-      <c r="F4" s="229"/>
-      <c r="G4" s="229"/>
-      <c r="H4" s="229"/>
-      <c r="I4" s="228"/>
-      <c r="J4" s="228"/>
-      <c r="K4" s="228"/>
-      <c r="L4" s="228"/>
-      <c r="M4" s="228"/>
-      <c r="N4" s="228"/>
-      <c r="O4" s="228"/>
-      <c r="P4" s="228"/>
-      <c r="Q4" s="228"/>
-      <c r="R4" s="230"/>
+      <c r="B4" s="230"/>
+      <c r="C4" s="204"/>
+      <c r="D4" s="204"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="204"/>
+      <c r="J4" s="204"/>
+      <c r="K4" s="204"/>
+      <c r="L4" s="204"/>
+      <c r="M4" s="204"/>
+      <c r="N4" s="204"/>
+      <c r="O4" s="204"/>
+      <c r="P4" s="204"/>
+      <c r="Q4" s="204"/>
+      <c r="R4" s="206"/>
     </row>
     <row r="5" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A5" s="217" t="s">
+      <c r="A5" s="239" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="218"/>
-      <c r="C5" s="246" t="s">
+      <c r="B5" s="240"/>
+      <c r="C5" s="222" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="232"/>
-      <c r="E5" s="231" t="s">
+      <c r="D5" s="208"/>
+      <c r="E5" s="207" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="232"/>
-      <c r="G5" s="232"/>
-      <c r="H5" s="243"/>
-      <c r="I5" s="232" t="s">
+      <c r="F5" s="208"/>
+      <c r="G5" s="208"/>
+      <c r="H5" s="219"/>
+      <c r="I5" s="208" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="232"/>
-      <c r="K5" s="232"/>
-      <c r="L5" s="231" t="s">
+      <c r="J5" s="208"/>
+      <c r="K5" s="208"/>
+      <c r="L5" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="232"/>
-      <c r="N5" s="232"/>
-      <c r="O5" s="232"/>
-      <c r="P5" s="232"/>
-      <c r="Q5" s="232"/>
-      <c r="R5" s="233"/>
+      <c r="M5" s="208"/>
+      <c r="N5" s="208"/>
+      <c r="O5" s="208"/>
+      <c r="P5" s="208"/>
+      <c r="Q5" s="208"/>
+      <c r="R5" s="209"/>
       <c r="T5" s="78"/>
     </row>
     <row r="6" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="205">
+      <c r="A6" s="227">
         <f>COUNTIF(E27:HM27,"P")</f>
         <v>4</v>
       </c>
-      <c r="B6" s="206"/>
-      <c r="C6" s="245">
+      <c r="B6" s="228"/>
+      <c r="C6" s="221">
         <f>COUNTIF(E27:HO27,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="235"/>
-      <c r="E6" s="234">
+      <c r="D6" s="211"/>
+      <c r="E6" s="210">
         <f>SUM(L6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="235"/>
-      <c r="G6" s="235"/>
-      <c r="H6" s="244"/>
+      <c r="F6" s="211"/>
+      <c r="G6" s="211"/>
+      <c r="H6" s="220"/>
       <c r="I6" s="154">
         <f>COUNTIF(E26:HM26,"N")</f>
         <v>1</v>
@@ -12886,16 +12942,16 @@
         <f>COUNTIF(E26:HO26,"B")</f>
         <v>0</v>
       </c>
-      <c r="L6" s="234">
+      <c r="L6" s="210">
         <f>COUNTA(E8:P8)</f>
         <v>4</v>
       </c>
-      <c r="M6" s="235"/>
-      <c r="N6" s="235"/>
-      <c r="O6" s="235"/>
-      <c r="P6" s="235"/>
-      <c r="Q6" s="235"/>
-      <c r="R6" s="236"/>
+      <c r="M6" s="211"/>
+      <c r="N6" s="211"/>
+      <c r="O6" s="211"/>
+      <c r="P6" s="211"/>
+      <c r="Q6" s="211"/>
+      <c r="R6" s="212"/>
       <c r="S6" s="155"/>
     </row>
     <row r="7" spans="1:20" ht="11.25" thickBot="1"/>
@@ -12938,8 +12994,12 @@
       <c r="C9" s="122"/>
       <c r="D9" s="123"/>
       <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="111"/>
+      <c r="F9" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="111" t="s">
+        <v>72</v>
+      </c>
       <c r="H9" s="129"/>
       <c r="I9" s="129"/>
       <c r="J9" s="129"/>
@@ -12962,7 +13022,9 @@
       <c r="E10" s="131"/>
       <c r="F10" s="131"/>
       <c r="G10" s="131"/>
-      <c r="H10" s="129"/>
+      <c r="H10" s="111" t="s">
+        <v>72</v>
+      </c>
       <c r="I10" s="129"/>
       <c r="J10" s="129"/>
       <c r="K10" s="129"/>
@@ -12982,7 +13044,9 @@
       <c r="C11" s="122"/>
       <c r="D11" s="123"/>
       <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
+      <c r="F11" s="131" t="s">
+        <v>72</v>
+      </c>
       <c r="G11" s="131"/>
       <c r="H11" s="129"/>
       <c r="I11" s="129"/>
@@ -13005,7 +13069,9 @@
       <c r="D12" s="123"/>
       <c r="E12" s="131"/>
       <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
+      <c r="G12" s="131" t="s">
+        <v>72</v>
+      </c>
       <c r="H12" s="129"/>
       <c r="I12" s="129"/>
       <c r="J12" s="129"/>
@@ -13376,11 +13442,11 @@
     </row>
     <row r="27" spans="1:18" ht="13.5" customHeight="1">
       <c r="A27" s="118"/>
-      <c r="B27" s="240" t="s">
+      <c r="B27" s="216" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="241"/>
-      <c r="D27" s="242"/>
+      <c r="C27" s="217"/>
+      <c r="D27" s="218"/>
       <c r="E27" s="111" t="s">
         <v>42</v>
       </c>
@@ -13406,11 +13472,11 @@
     </row>
     <row r="28" spans="1:18" ht="64.5" customHeight="1">
       <c r="A28" s="118"/>
-      <c r="B28" s="225" t="s">
+      <c r="B28" s="201" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="226"/>
-      <c r="D28" s="227"/>
+      <c r="C28" s="202"/>
+      <c r="D28" s="203"/>
       <c r="E28" s="91">
         <v>42334</v>
       </c>
@@ -13444,20 +13510,6 @@
     <row r="61" ht="10.5"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="L6:R6"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:R4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:R5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:H2"/>
@@ -13466,6 +13518,20 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I3:R3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:R4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:R5"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="L6:R6"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E27:R27">
@@ -13474,7 +13540,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E26:R26">
       <formula1>"N,A,B, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:R25 E9:G12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:R25 E9:G12 H10">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
